--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_40.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3959363.59480737</v>
+        <v>3959010.668721891</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>238992.8148320311</v>
+        <v>238992.8148320314</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.029273655</v>
+        <v>504792.0292736553</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>378.1144210805207</v>
+        <v>141.6548709500186</v>
       </c>
       <c r="D2" t="n">
-        <v>59.37611982456433</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,10 +674,10 @@
         <v>11.94294668035388</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>145.5577298436975</v>
@@ -750,13 +750,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
-        <v>112.5217700961621</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
         <v>216.3098444776729</v>
@@ -798,13 +798,13 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W3" t="n">
-        <v>238.9027100790231</v>
+        <v>150.6760912909435</v>
       </c>
       <c r="X3" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="4">
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>13.48037621410408</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
-        <v>99.65930172433372</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>242.4443782579802</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>10.00967878293136</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>333.6094813630181</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>389.6064368699203</v>
+        <v>367.1497036181993</v>
       </c>
     </row>
     <row r="6">
@@ -975,13 +975,13 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
-        <v>83.99184426173835</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
         <v>151.2714921173871</v>
@@ -1035,7 +1035,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W6" t="n">
-        <v>238.9027100790231</v>
+        <v>35.92302963646311</v>
       </c>
       <c r="X6" t="n">
         <v>195.9378182409833</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>146.8428649054145</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>268.6107013963115</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>130.1075471085585</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>11.94294668035388</v>
       </c>
       <c r="H8" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>329.8527632939427</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,16 +1209,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>143.3967341957892</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>82.64215461479291</v>
       </c>
       <c r="F9" t="n">
         <v>133.3468600696244</v>
@@ -1227,10 +1227,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>216.3098444776729</v>
@@ -1275,7 +1275,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y9" t="n">
         <v>190.5961130869169</v>
@@ -1333,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>31.87115035534897</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>211.5726649703493</v>
+        <v>147.8649255692296</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>255.6655596168399</v>
       </c>
       <c r="E11" t="n">
-        <v>137.6683225786024</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>298.5127811721451</v>
       </c>
       <c r="H11" t="n">
-        <v>216.0628961504551</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>57.65886129508318</v>
+        <v>57.6588612950832</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.92652010774081</v>
+        <v>71.49313220594161</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>108.6851912980902</v>
       </c>
       <c r="U11" t="n">
         <v>138.9063174149371</v>
@@ -1430,7 +1430,7 @@
         <v>220.1793158548093</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>245.4794153327662</v>
       </c>
       <c r="X11" t="n">
         <v>264.7796735655128</v>
@@ -1458,10 +1458,10 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F12" t="n">
-        <v>118.7813687841207</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
-        <v>127.4412149769483</v>
+        <v>112.8757236914445</v>
       </c>
       <c r="H12" t="n">
         <v>98.93847887876893</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>68.28964948932726</v>
+        <v>68.28964948932727</v>
       </c>
       <c r="C13" t="n">
-        <v>54.48964433472774</v>
+        <v>54.48964433472776</v>
       </c>
       <c r="D13" t="n">
-        <v>38.11100873230613</v>
+        <v>38.11100873230615</v>
       </c>
       <c r="E13" t="n">
-        <v>37.05875858808558</v>
+        <v>37.0587585880856</v>
       </c>
       <c r="F13" t="n">
-        <v>37.52568291627189</v>
+        <v>37.5256829162719</v>
       </c>
       <c r="G13" t="n">
-        <v>53.80038563761973</v>
+        <v>53.80038563761974</v>
       </c>
       <c r="H13" t="n">
-        <v>44.34875326031015</v>
+        <v>44.34875326031016</v>
       </c>
       <c r="I13" t="n">
-        <v>29.33084844513949</v>
+        <v>29.33084844513951</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.5963980635568</v>
+        <v>34.59639806355682</v>
       </c>
       <c r="S13" t="n">
-        <v>98.14249946214055</v>
+        <v>98.14249946214056</v>
       </c>
       <c r="T13" t="n">
         <v>117.4169981442692</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>276.6729386146302</v>
       </c>
       <c r="C14" t="n">
-        <v>264.6842555723119</v>
+        <v>107.7801007125632</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>255.6655596168399</v>
       </c>
       <c r="E14" t="n">
-        <v>277.4076971867455</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>296.5795132747226</v>
       </c>
       <c r="G14" t="n">
-        <v>298.5127811721451</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>216.0628961504551</v>
       </c>
       <c r="I14" t="n">
-        <v>57.65886129508321</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>71.92652010774083</v>
       </c>
       <c r="T14" t="n">
         <v>108.6851912980902</v>
       </c>
       <c r="U14" t="n">
-        <v>138.9063174149372</v>
+        <v>138.9063174149371</v>
       </c>
       <c r="V14" t="n">
         <v>220.1793158548093</v>
@@ -1673,7 +1673,7 @@
         <v>264.7796735655128</v>
       </c>
       <c r="Y14" t="n">
-        <v>89.95779518719948</v>
+        <v>276.1762713617116</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1701,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H15" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326521</v>
       </c>
       <c r="I15" t="n">
         <v>67.69846245683961</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>44.62093493050007</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S15" t="n">
         <v>151.2714921173871</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>68.28964948932729</v>
+        <v>68.28964948932727</v>
       </c>
       <c r="C16" t="n">
-        <v>54.48964433472777</v>
+        <v>54.48964433472776</v>
       </c>
       <c r="D16" t="n">
-        <v>38.11100873230616</v>
+        <v>38.11100873230615</v>
       </c>
       <c r="E16" t="n">
-        <v>37.05875858808561</v>
+        <v>37.0587585880856</v>
       </c>
       <c r="F16" t="n">
-        <v>37.52568291627192</v>
+        <v>37.5256829162719</v>
       </c>
       <c r="G16" t="n">
-        <v>53.80038563761975</v>
+        <v>53.80038563761974</v>
       </c>
       <c r="H16" t="n">
-        <v>44.34875326031018</v>
+        <v>44.34875326031016</v>
       </c>
       <c r="I16" t="n">
-        <v>29.33084844513952</v>
+        <v>29.33084844513951</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.59639806355683</v>
+        <v>34.59639806355682</v>
       </c>
       <c r="S16" t="n">
-        <v>98.14249946214058</v>
+        <v>98.14249946214056</v>
       </c>
       <c r="T16" t="n">
         <v>117.4169981442692</v>
@@ -1828,7 +1828,7 @@
         <v>169.8646719595661</v>
       </c>
       <c r="X16" t="n">
-        <v>115.5097739553693</v>
+        <v>115.5097739553692</v>
       </c>
       <c r="Y16" t="n">
         <v>106.3846417114369</v>
@@ -1941,7 +1941,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I18" t="n">
-        <v>67.69846245683961</v>
+        <v>53.1329711713359</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S18" t="n">
-        <v>136.7060008318832</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T18" t="n">
         <v>186.7982527956746</v>
@@ -2178,7 +2178,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I21" t="n">
-        <v>53.1329711713359</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S21" t="n">
         <v>151.2714921173871</v>
@@ -2415,7 +2415,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I24" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133546</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S24" t="n">
-        <v>136.7060008318836</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T24" t="n">
         <v>186.7982527956746</v>
@@ -2561,10 +2561,10 @@
         <v>242.3087747693046</v>
       </c>
       <c r="E26" t="n">
-        <v>264.0509123392089</v>
+        <v>264.0509123392101</v>
       </c>
       <c r="F26" t="n">
-        <v>283.2227284271873</v>
+        <v>283.2227284271872</v>
       </c>
       <c r="G26" t="n">
         <v>285.1559963246098</v>
@@ -2573,7 +2573,7 @@
         <v>202.7061113029197</v>
       </c>
       <c r="I26" t="n">
-        <v>44.30207644754788</v>
+        <v>44.30207644754785</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>58.5697352602055</v>
+        <v>58.56973526020548</v>
       </c>
       <c r="T26" t="n">
-        <v>95.32840645055487</v>
+        <v>95.32840645055484</v>
       </c>
       <c r="U26" t="n">
         <v>125.5495325674018</v>
@@ -2621,7 +2621,7 @@
         <v>251.4228887179775</v>
       </c>
       <c r="Y26" t="n">
-        <v>262.8194865141763</v>
+        <v>262.8194865141762</v>
       </c>
     </row>
     <row r="27">
@@ -2649,7 +2649,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H27" t="n">
-        <v>84.37298759326558</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I27" t="n">
         <v>67.69846245683961</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S27" t="n">
         <v>151.2714921173871</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>54.93286464179195</v>
+        <v>54.93286464179192</v>
       </c>
       <c r="C28" t="n">
-        <v>41.13285948719243</v>
+        <v>41.13285948719241</v>
       </c>
       <c r="D28" t="n">
-        <v>24.75422388477082</v>
+        <v>24.75422388477079</v>
       </c>
       <c r="E28" t="n">
-        <v>23.70197374055027</v>
+        <v>23.70197374055024</v>
       </c>
       <c r="F28" t="n">
-        <v>24.16889806873658</v>
+        <v>24.16889806873655</v>
       </c>
       <c r="G28" t="n">
-        <v>40.44360079008442</v>
+        <v>40.44360079008439</v>
       </c>
       <c r="H28" t="n">
-        <v>30.99196841277484</v>
+        <v>30.99196841277481</v>
       </c>
       <c r="I28" t="n">
-        <v>15.97406359760419</v>
+        <v>15.97406359760416</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.2396132160215</v>
+        <v>21.23961321602147</v>
       </c>
       <c r="S28" t="n">
-        <v>84.78571461460524</v>
+        <v>84.78571461460521</v>
       </c>
       <c r="T28" t="n">
-        <v>104.0602132967339</v>
+        <v>104.0602132967338</v>
       </c>
       <c r="U28" t="n">
         <v>157.531386760047</v>
@@ -2779,7 +2779,7 @@
         <v>102.1529891078339</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.0278568639016</v>
+        <v>93.02785686390158</v>
       </c>
     </row>
     <row r="29">
@@ -2801,7 +2801,7 @@
         <v>264.0509123392101</v>
       </c>
       <c r="F29" t="n">
-        <v>283.2227284271872</v>
+        <v>283.2227284271873</v>
       </c>
       <c r="G29" t="n">
         <v>285.1559963246098</v>
@@ -2810,7 +2810,7 @@
         <v>202.7061113029197</v>
       </c>
       <c r="I29" t="n">
-        <v>44.30207644754785</v>
+        <v>44.30207644754786</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58.56973526020548</v>
+        <v>58.56973526020549</v>
       </c>
       <c r="T29" t="n">
-        <v>95.32840645055484</v>
+        <v>95.32840645055485</v>
       </c>
       <c r="U29" t="n">
         <v>125.5495325674018</v>
@@ -2858,7 +2858,7 @@
         <v>251.4228887179775</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.8194865141762</v>
+        <v>262.8194865141763</v>
       </c>
     </row>
     <row r="30">
@@ -2874,10 +2874,10 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D30" t="n">
-        <v>137.45025063969</v>
+        <v>122.8847593541866</v>
       </c>
       <c r="E30" t="n">
-        <v>130.9922385581941</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F30" t="n">
         <v>133.3468600696244</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>54.93286464179192</v>
+        <v>54.93286464179194</v>
       </c>
       <c r="C31" t="n">
-        <v>41.13285948719241</v>
+        <v>41.13285948719242</v>
       </c>
       <c r="D31" t="n">
-        <v>24.75422388477079</v>
+        <v>24.75422388477081</v>
       </c>
       <c r="E31" t="n">
-        <v>23.70197374055024</v>
+        <v>23.70197374055026</v>
       </c>
       <c r="F31" t="n">
-        <v>24.16889806873655</v>
+        <v>24.16889806873657</v>
       </c>
       <c r="G31" t="n">
-        <v>40.44360079008439</v>
+        <v>40.4436007900844</v>
       </c>
       <c r="H31" t="n">
-        <v>30.99196841277481</v>
+        <v>30.99196841277482</v>
       </c>
       <c r="I31" t="n">
-        <v>15.97406359760416</v>
+        <v>15.97406359760417</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.23961321602147</v>
+        <v>21.23961321602148</v>
       </c>
       <c r="S31" t="n">
-        <v>84.78571461460521</v>
+        <v>84.78571461460523</v>
       </c>
       <c r="T31" t="n">
-        <v>104.0602132967338</v>
+        <v>104.0602132967339</v>
       </c>
       <c r="U31" t="n">
         <v>157.531386760047</v>
@@ -3016,7 +3016,7 @@
         <v>102.1529891078339</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.02785686390158</v>
+        <v>93.02785686390159</v>
       </c>
     </row>
     <row r="32">
@@ -3123,10 +3123,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H33" t="n">
-        <v>84.37298759326535</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I33" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133605</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S36" t="n">
         <v>151.2714921173871</v>
@@ -3408,7 +3408,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X36" t="n">
-        <v>181.3723269554799</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y36" t="n">
         <v>190.5961130869169</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493049962</v>
       </c>
       <c r="S39" t="n">
         <v>151.2714921173871</v>
@@ -3636,7 +3636,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U39" t="n">
-        <v>201.7443531921692</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V39" t="n">
         <v>226.1116663261494</v>
@@ -3740,25 +3740,25 @@
         <v>255.8299181189404</v>
       </c>
       <c r="C41" t="n">
-        <v>243.8412350766221</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>234.8225391211501</v>
+        <v>234.8225391211502</v>
       </c>
       <c r="E41" t="n">
-        <v>256.5646766910556</v>
+        <v>256.5646766910557</v>
       </c>
       <c r="F41" t="n">
-        <v>275.7364927790328</v>
+        <v>275.7364927790329</v>
       </c>
       <c r="G41" t="n">
-        <v>277.6697606764553</v>
+        <v>277.6697606764554</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>36.81584079939336</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>51.08349961205099</v>
+        <v>51.08349961205107</v>
       </c>
       <c r="T41" t="n">
-        <v>87.84217080240035</v>
+        <v>87.84217080240043</v>
       </c>
       <c r="U41" t="n">
-        <v>118.0632969192473</v>
+        <v>118.0632969192474</v>
       </c>
       <c r="V41" t="n">
-        <v>199.3362953591195</v>
+        <v>197.3750598115241</v>
       </c>
       <c r="W41" t="n">
-        <v>224.6363948370764</v>
+        <v>224.6363948370765</v>
       </c>
       <c r="X41" t="n">
-        <v>216.6515925122353</v>
+        <v>243.9366530698231</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>255.3332508660218</v>
       </c>
     </row>
     <row r="42">
@@ -3834,7 +3834,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H42" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326521</v>
       </c>
       <c r="I42" t="n">
         <v>67.69846245683961</v>
@@ -3870,7 +3870,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T42" t="n">
-        <v>172.2327615101707</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U42" t="n">
         <v>216.3098444776729</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>47.44662899363743</v>
+        <v>47.44662899363752</v>
       </c>
       <c r="C43" t="n">
-        <v>33.64662383903791</v>
+        <v>33.646623839038</v>
       </c>
       <c r="D43" t="n">
-        <v>17.2679882366163</v>
+        <v>17.26798823661639</v>
       </c>
       <c r="E43" t="n">
-        <v>16.21573809239575</v>
+        <v>16.21573809239584</v>
       </c>
       <c r="F43" t="n">
-        <v>16.68266242058206</v>
+        <v>16.68266242058215</v>
       </c>
       <c r="G43" t="n">
-        <v>32.9573651419299</v>
+        <v>32.95736514192998</v>
       </c>
       <c r="H43" t="n">
-        <v>23.50573276462032</v>
+        <v>23.5057327646204</v>
       </c>
       <c r="I43" t="n">
-        <v>8.487827949449667</v>
+        <v>8.487827949449752</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>13.75337756786698</v>
+        <v>13.75337756786706</v>
       </c>
       <c r="S43" t="n">
-        <v>77.29947896645072</v>
+        <v>77.29947896645081</v>
       </c>
       <c r="T43" t="n">
-        <v>96.57397764857936</v>
+        <v>96.57397764857944</v>
       </c>
       <c r="U43" t="n">
-        <v>150.0451511118925</v>
+        <v>150.0451511118926</v>
       </c>
       <c r="V43" t="n">
-        <v>123.854765393263</v>
+        <v>123.8547653932631</v>
       </c>
       <c r="W43" t="n">
-        <v>149.0216514638763</v>
+        <v>149.0216514638764</v>
       </c>
       <c r="X43" t="n">
-        <v>94.6667534596794</v>
+        <v>94.66675345967948</v>
       </c>
       <c r="Y43" t="n">
-        <v>85.54162121574709</v>
+        <v>85.54162121574717</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>255.8299181189404</v>
+        <v>255.8299181189405</v>
       </c>
       <c r="C44" t="n">
-        <v>243.8412350766221</v>
+        <v>243.8412350766222</v>
       </c>
       <c r="D44" t="n">
-        <v>234.8225391211501</v>
+        <v>234.8225391211502</v>
       </c>
       <c r="E44" t="n">
-        <v>256.5646766910556</v>
+        <v>256.5646766910558</v>
       </c>
       <c r="F44" t="n">
-        <v>275.7364927790328</v>
+        <v>53.23155656667853</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>277.6697606764554</v>
       </c>
       <c r="H44" t="n">
-        <v>195.2198756547652</v>
+        <v>195.2198756547653</v>
       </c>
       <c r="I44" t="n">
-        <v>36.81584079939336</v>
+        <v>36.81584079939347</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>51.08349961205099</v>
+        <v>51.0834996120511</v>
       </c>
       <c r="T44" t="n">
-        <v>87.01003975960005</v>
+        <v>87.84217080240046</v>
       </c>
       <c r="U44" t="n">
-        <v>118.0632969192473</v>
+        <v>118.0632969192474</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>199.3362953591196</v>
       </c>
       <c r="W44" t="n">
-        <v>224.6363948370764</v>
+        <v>224.6363948370765</v>
       </c>
       <c r="X44" t="n">
-        <v>243.936653069823</v>
+        <v>243.9366530698231</v>
       </c>
       <c r="Y44" t="n">
-        <v>255.3332508660218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I45" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133636</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4119,7 +4119,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X45" t="n">
-        <v>181.3723269554799</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y45" t="n">
         <v>190.5961130869169</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.44662899363743</v>
+        <v>47.44662899363755</v>
       </c>
       <c r="C46" t="n">
-        <v>33.64662383903791</v>
+        <v>33.64662383903803</v>
       </c>
       <c r="D46" t="n">
-        <v>17.2679882366163</v>
+        <v>17.26798823661642</v>
       </c>
       <c r="E46" t="n">
-        <v>16.21573809239575</v>
+        <v>16.21573809239587</v>
       </c>
       <c r="F46" t="n">
-        <v>16.68266242058206</v>
+        <v>16.68266242058218</v>
       </c>
       <c r="G46" t="n">
-        <v>32.9573651419299</v>
+        <v>32.95736514193001</v>
       </c>
       <c r="H46" t="n">
-        <v>23.50573276462032</v>
+        <v>23.50573276462043</v>
       </c>
       <c r="I46" t="n">
-        <v>8.487827949449667</v>
+        <v>8.48782794944978</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>13.75337756786698</v>
+        <v>13.75337756786709</v>
       </c>
       <c r="S46" t="n">
-        <v>77.29947896645072</v>
+        <v>77.29947896645083</v>
       </c>
       <c r="T46" t="n">
-        <v>96.57397764857936</v>
+        <v>96.57397764857947</v>
       </c>
       <c r="U46" t="n">
-        <v>150.0451511118925</v>
+        <v>150.0451511118926</v>
       </c>
       <c r="V46" t="n">
-        <v>123.854765393263</v>
+        <v>123.8547653932631</v>
       </c>
       <c r="W46" t="n">
-        <v>149.0216514638763</v>
+        <v>149.0216514638764</v>
       </c>
       <c r="X46" t="n">
-        <v>94.6667534596794</v>
+        <v>94.66675345967951</v>
       </c>
       <c r="Y46" t="n">
-        <v>85.54162121574709</v>
+        <v>85.5416212157472</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>502.9241160854999</v>
+        <v>709.7386802338729</v>
       </c>
       <c r="C2" t="n">
-        <v>120.9903574183072</v>
+        <v>566.6529520015308</v>
       </c>
       <c r="D2" t="n">
-        <v>61.01447880763617</v>
+        <v>566.6529520015308</v>
       </c>
       <c r="E2" t="n">
-        <v>61.01447880763617</v>
+        <v>566.6529520015308</v>
       </c>
       <c r="F2" t="n">
-        <v>50.90369215821055</v>
+        <v>556.5421653521053</v>
       </c>
       <c r="G2" t="n">
-        <v>38.84010965280259</v>
+        <v>544.4785828466972</v>
       </c>
       <c r="H2" t="n">
-        <v>38.84010965280259</v>
+        <v>211.6573084440066</v>
       </c>
       <c r="I2" t="n">
-        <v>38.84010965280259</v>
+        <v>38.84010965280258</v>
       </c>
       <c r="J2" t="n">
-        <v>38.84010965280259</v>
+        <v>110.8386539256082</v>
       </c>
       <c r="K2" t="n">
-        <v>278.9804816975853</v>
+        <v>350.979025970391</v>
       </c>
       <c r="L2" t="n">
-        <v>626.8658547825316</v>
+        <v>542.8412230839015</v>
       </c>
       <c r="M2" t="n">
-        <v>1020.10502103562</v>
+        <v>936.0803893369894</v>
       </c>
       <c r="N2" t="n">
-        <v>1398.436379723335</v>
+        <v>1314.411748024705</v>
       </c>
       <c r="O2" t="n">
-        <v>1703.440964196169</v>
+        <v>1619.416332497539</v>
       </c>
       <c r="P2" t="n">
-        <v>1931.597860652222</v>
+        <v>1847.573228953592</v>
       </c>
       <c r="Q2" t="n">
         <v>1942.005482640129</v>
       </c>
       <c r="R2" t="n">
-        <v>1851.367196135983</v>
+        <v>1851.367196135982</v>
       </c>
       <c r="S2" t="n">
-        <v>1851.367196135983</v>
+        <v>1664.138220766336</v>
       </c>
       <c r="T2" t="n">
-        <v>1851.367196135983</v>
+        <v>1664.138220766336</v>
       </c>
       <c r="U2" t="n">
-        <v>1596.481859849977</v>
+        <v>1409.252884480331</v>
       </c>
       <c r="V2" t="n">
-        <v>1259.502585745918</v>
+        <v>1072.273610376272</v>
       </c>
       <c r="W2" t="n">
-        <v>896.967655603519</v>
+        <v>709.7386802338729</v>
       </c>
       <c r="X2" t="n">
-        <v>896.967655603519</v>
+        <v>709.7386802338729</v>
       </c>
       <c r="Y2" t="n">
-        <v>896.967655603519</v>
+        <v>709.7386802338729</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>789.4243701781311</v>
+        <v>610.9940903818177</v>
       </c>
       <c r="C3" t="n">
-        <v>627.7206974190858</v>
+        <v>449.2904176227724</v>
       </c>
       <c r="D3" t="n">
-        <v>488.8820604092979</v>
+        <v>449.2904176227724</v>
       </c>
       <c r="E3" t="n">
-        <v>341.8540504661692</v>
+        <v>302.2624076796436</v>
       </c>
       <c r="F3" t="n">
-        <v>207.1602524160435</v>
+        <v>167.568609629518</v>
       </c>
       <c r="G3" t="n">
-        <v>207.1602524160435</v>
+        <v>38.84010965280258</v>
       </c>
       <c r="H3" t="n">
-        <v>107.2223949627416</v>
+        <v>38.84010965280258</v>
       </c>
       <c r="I3" t="n">
-        <v>38.84010965280259</v>
+        <v>38.84010965280258</v>
       </c>
       <c r="J3" t="n">
-        <v>99.09425618590873</v>
+        <v>38.84010965280258</v>
       </c>
       <c r="K3" t="n">
-        <v>328.5848087460974</v>
+        <v>268.3306622129912</v>
       </c>
       <c r="L3" t="n">
-        <v>694.406653916213</v>
+        <v>634.1525073831069</v>
       </c>
       <c r="M3" t="n">
         <v>1089.937982794687</v>
@@ -4422,7 +4422,7 @@
         <v>1089.937982794687</v>
       </c>
       <c r="O3" t="n">
-        <v>1482.137933578838</v>
+        <v>1482.137933578837</v>
       </c>
       <c r="P3" t="n">
         <v>1784.233852854535</v>
@@ -4437,22 +4437,22 @@
         <v>1789.205995652869</v>
       </c>
       <c r="T3" t="n">
-        <v>1675.547642020382</v>
+        <v>1600.520891818854</v>
       </c>
       <c r="U3" t="n">
-        <v>1457.052849618693</v>
+        <v>1382.026099417164</v>
       </c>
       <c r="V3" t="n">
-        <v>1228.657227067026</v>
+        <v>1153.630476865498</v>
       </c>
       <c r="W3" t="n">
-        <v>987.3413583003365</v>
+        <v>1001.432404854444</v>
       </c>
       <c r="X3" t="n">
-        <v>789.4243701781311</v>
+        <v>803.5154167322389</v>
       </c>
       <c r="Y3" t="n">
-        <v>789.4243701781311</v>
+        <v>610.9940903818177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.0431540501241</v>
+        <v>38.84010965280258</v>
       </c>
       <c r="C4" t="n">
-        <v>183.0431540501241</v>
+        <v>38.84010965280258</v>
       </c>
       <c r="D4" t="n">
-        <v>183.0431540501241</v>
+        <v>38.84010965280258</v>
       </c>
       <c r="E4" t="n">
-        <v>183.0431540501241</v>
+        <v>38.84010965280258</v>
       </c>
       <c r="F4" t="n">
-        <v>183.0431540501241</v>
+        <v>38.84010965280258</v>
       </c>
       <c r="G4" t="n">
-        <v>183.0431540501241</v>
+        <v>38.84010965280258</v>
       </c>
       <c r="H4" t="n">
-        <v>183.0431540501241</v>
+        <v>38.84010965280258</v>
       </c>
       <c r="I4" t="n">
-        <v>38.84010965280259</v>
+        <v>38.84010965280258</v>
       </c>
       <c r="J4" t="n">
-        <v>38.84010965280259</v>
+        <v>38.84010965280258</v>
       </c>
       <c r="K4" t="n">
-        <v>72.44429739744601</v>
+        <v>72.44429739744599</v>
       </c>
       <c r="L4" t="n">
         <v>173.0513767977055</v>
       </c>
       <c r="M4" t="n">
-        <v>291.0448829253073</v>
+        <v>291.0448829253072</v>
       </c>
       <c r="N4" t="n">
         <v>409.4672246749076</v>
       </c>
       <c r="O4" t="n">
-        <v>507.9308711705973</v>
+        <v>507.9308711705972</v>
       </c>
       <c r="P4" t="n">
         <v>570.8993548987351</v>
@@ -4513,25 +4513,25 @@
         <v>570.8993548987351</v>
       </c>
       <c r="S4" t="n">
-        <v>570.8993548987351</v>
+        <v>557.2828132683269</v>
       </c>
       <c r="T4" t="n">
-        <v>570.8993548987351</v>
+        <v>557.2828132683269</v>
       </c>
       <c r="U4" t="n">
-        <v>283.7091153878349</v>
+        <v>270.0925737574268</v>
       </c>
       <c r="V4" t="n">
-        <v>183.0431540501241</v>
+        <v>270.0925737574268</v>
       </c>
       <c r="W4" t="n">
-        <v>183.0431540501241</v>
+        <v>270.0925737574268</v>
       </c>
       <c r="X4" t="n">
-        <v>183.0431540501241</v>
+        <v>38.84010965280258</v>
       </c>
       <c r="Y4" t="n">
-        <v>183.0431540501241</v>
+        <v>38.84010965280258</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>678.7317549521098</v>
+        <v>615.7654362660328</v>
       </c>
       <c r="C5" t="n">
-        <v>678.7317549521098</v>
+        <v>233.8316775988401</v>
       </c>
       <c r="D5" t="n">
-        <v>305.9077901793333</v>
+        <v>233.8316775988401</v>
       </c>
       <c r="E5" t="n">
-        <v>61.01447880763617</v>
+        <v>233.8316775988401</v>
       </c>
       <c r="F5" t="n">
-        <v>50.90369215821055</v>
+        <v>223.7208909494145</v>
       </c>
       <c r="G5" t="n">
-        <v>38.84010965280259</v>
+        <v>211.6573084440066</v>
       </c>
       <c r="H5" t="n">
-        <v>38.84010965280259</v>
+        <v>211.6573084440066</v>
       </c>
       <c r="I5" t="n">
-        <v>38.84010965280259</v>
+        <v>38.84010965280258</v>
       </c>
       <c r="J5" t="n">
         <v>110.8386539256082</v>
@@ -4589,28 +4589,28 @@
         <v>1942.005482640129</v>
       </c>
       <c r="R5" t="n">
-        <v>1851.367196135983</v>
+        <v>1942.005482640129</v>
       </c>
       <c r="S5" t="n">
-        <v>1664.138220766336</v>
+        <v>1942.005482640129</v>
       </c>
       <c r="T5" t="n">
-        <v>1664.138220766336</v>
+        <v>1717.64653637114</v>
       </c>
       <c r="U5" t="n">
-        <v>1409.252884480331</v>
+        <v>1717.64653637114</v>
       </c>
       <c r="V5" t="n">
-        <v>1072.273610376272</v>
+        <v>1380.667262267081</v>
       </c>
       <c r="W5" t="n">
-        <v>1072.273610376272</v>
+        <v>1380.667262267081</v>
       </c>
       <c r="X5" t="n">
-        <v>1072.273610376272</v>
+        <v>1380.667262267081</v>
       </c>
       <c r="Y5" t="n">
-        <v>678.7317549521098</v>
+        <v>1009.808975784052</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>362.4568508449211</v>
+        <v>507.7025621848768</v>
       </c>
       <c r="C6" t="n">
-        <v>362.4568508449211</v>
+        <v>345.9988894258315</v>
       </c>
       <c r="D6" t="n">
-        <v>223.6182138351332</v>
+        <v>207.1602524160435</v>
       </c>
       <c r="E6" t="n">
-        <v>138.7779671061045</v>
+        <v>207.1602524160435</v>
       </c>
       <c r="F6" t="n">
-        <v>138.7779671061045</v>
+        <v>207.1602524160435</v>
       </c>
       <c r="G6" t="n">
-        <v>138.7779671061045</v>
+        <v>207.1602524160435</v>
       </c>
       <c r="H6" t="n">
-        <v>38.84010965280259</v>
+        <v>107.2223949627416</v>
       </c>
       <c r="I6" t="n">
-        <v>38.84010965280259</v>
+        <v>38.84010965280258</v>
       </c>
       <c r="J6" t="n">
         <v>99.09425618590873</v>
       </c>
       <c r="K6" t="n">
-        <v>328.5848087460974</v>
+        <v>243.4697806711391</v>
       </c>
       <c r="L6" t="n">
-        <v>694.406653916213</v>
+        <v>609.2916258412547</v>
       </c>
       <c r="M6" t="n">
-        <v>1175.053010869645</v>
+        <v>609.2916258412547</v>
       </c>
       <c r="N6" t="n">
-        <v>1175.053010869645</v>
+        <v>1089.937982794687</v>
       </c>
       <c r="O6" t="n">
-        <v>1567.252961653796</v>
+        <v>1482.137933578837</v>
       </c>
       <c r="P6" t="n">
-        <v>1869.348880929493</v>
+        <v>1784.233852854535</v>
       </c>
       <c r="Q6" t="n">
         <v>1942.005482640129</v>
       </c>
       <c r="R6" t="n">
-        <v>1942.005482640129</v>
+        <v>1882.221213735075</v>
       </c>
       <c r="S6" t="n">
-        <v>1789.205995652869</v>
+        <v>1729.421726747815</v>
       </c>
       <c r="T6" t="n">
-        <v>1600.520891818855</v>
+        <v>1540.7366229138</v>
       </c>
       <c r="U6" t="n">
-        <v>1382.026099417165</v>
+        <v>1322.24183051211</v>
       </c>
       <c r="V6" t="n">
-        <v>1153.630476865499</v>
+        <v>1093.846207960444</v>
       </c>
       <c r="W6" t="n">
-        <v>912.3146080988087</v>
+        <v>1057.560319438764</v>
       </c>
       <c r="X6" t="n">
-        <v>714.3976199766032</v>
+        <v>859.6433313165588</v>
       </c>
       <c r="Y6" t="n">
-        <v>521.876293626182</v>
+        <v>667.1220049661376</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4699,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>339.6468907941108</v>
+        <v>38.84010965280258</v>
       </c>
       <c r="C7" t="n">
-        <v>191.3207646270255</v>
+        <v>38.84010965280258</v>
       </c>
       <c r="D7" t="n">
-        <v>191.3207646270255</v>
+        <v>38.84010965280258</v>
       </c>
       <c r="E7" t="n">
-        <v>191.3207646270255</v>
+        <v>38.84010965280258</v>
       </c>
       <c r="F7" t="n">
-        <v>38.84010965280259</v>
+        <v>38.84010965280258</v>
       </c>
       <c r="G7" t="n">
-        <v>38.84010965280259</v>
+        <v>38.84010965280258</v>
       </c>
       <c r="H7" t="n">
-        <v>38.84010965280259</v>
+        <v>38.84010965280258</v>
       </c>
       <c r="I7" t="n">
-        <v>38.84010965280259</v>
+        <v>38.84010965280258</v>
       </c>
       <c r="J7" t="n">
-        <v>38.84010965280259</v>
+        <v>38.84010965280258</v>
       </c>
       <c r="K7" t="n">
-        <v>72.44429739744601</v>
+        <v>72.44429739744599</v>
       </c>
       <c r="L7" t="n">
         <v>173.0513767977055</v>
       </c>
       <c r="M7" t="n">
-        <v>291.0448829253073</v>
+        <v>291.0448829253072</v>
       </c>
       <c r="N7" t="n">
         <v>409.4672246749076</v>
       </c>
       <c r="O7" t="n">
-        <v>507.9308711705973</v>
+        <v>507.9308711705972</v>
       </c>
       <c r="P7" t="n">
         <v>570.8993548987351</v>
@@ -4756,19 +4756,19 @@
         <v>570.8993548987351</v>
       </c>
       <c r="U7" t="n">
-        <v>570.8993548987351</v>
+        <v>299.57541409438</v>
       </c>
       <c r="V7" t="n">
-        <v>570.8993548987351</v>
+        <v>38.84010965280258</v>
       </c>
       <c r="W7" t="n">
-        <v>570.8993548987351</v>
+        <v>38.84010965280258</v>
       </c>
       <c r="X7" t="n">
-        <v>339.6468907941108</v>
+        <v>38.84010965280258</v>
       </c>
       <c r="Y7" t="n">
-        <v>339.6468907941108</v>
+        <v>38.84010965280258</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>569.8370984499275</v>
+        <v>446.1323839232255</v>
       </c>
       <c r="C8" t="n">
-        <v>569.8370984499275</v>
+        <v>64.19862525603281</v>
       </c>
       <c r="D8" t="n">
-        <v>569.8370984499275</v>
+        <v>64.19862525603281</v>
       </c>
       <c r="E8" t="n">
-        <v>569.8370984499275</v>
+        <v>64.19862525603281</v>
       </c>
       <c r="F8" t="n">
-        <v>559.7263118005019</v>
+        <v>54.08783860660719</v>
       </c>
       <c r="G8" t="n">
-        <v>547.662729295094</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H8" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I8" t="n">
         <v>42.02425610119923</v>
@@ -4838,16 +4838,16 @@
         <v>1659.098493404309</v>
       </c>
       <c r="V8" t="n">
-        <v>1325.913884016489</v>
+        <v>1322.119219300251</v>
       </c>
       <c r="W8" t="n">
-        <v>963.3789538740895</v>
+        <v>959.5842891578518</v>
       </c>
       <c r="X8" t="n">
-        <v>963.3789538740895</v>
+        <v>577.5541486793452</v>
       </c>
       <c r="Y8" t="n">
-        <v>569.8370984499275</v>
+        <v>577.5541486793452</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>674.3711492068126</v>
+        <v>650.5650081937138</v>
       </c>
       <c r="C9" t="n">
-        <v>512.6674764477673</v>
+        <v>488.8613354346685</v>
       </c>
       <c r="D9" t="n">
-        <v>373.8288394379794</v>
+        <v>488.8613354346685</v>
       </c>
       <c r="E9" t="n">
-        <v>373.8288394379794</v>
+        <v>405.3844115813423</v>
       </c>
       <c r="F9" t="n">
-        <v>239.1350413878537</v>
+        <v>270.6906135312166</v>
       </c>
       <c r="G9" t="n">
-        <v>110.4065414111382</v>
+        <v>141.9621135545012</v>
       </c>
       <c r="H9" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I9" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>102.2784026343054</v>
+        <v>49.73385863501696</v>
       </c>
       <c r="K9" t="n">
-        <v>331.768955194494</v>
+        <v>279.2244111952056</v>
       </c>
       <c r="L9" t="n">
-        <v>697.5908003646097</v>
+        <v>645.0462563653213</v>
       </c>
       <c r="M9" t="n">
-        <v>1182.624153874836</v>
+        <v>1130.079609875548</v>
       </c>
       <c r="N9" t="n">
-        <v>1693.889799997958</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="O9" t="n">
-        <v>2086.089750782109</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P9" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q9" t="n">
         <v>2101.212805059961</v>
@@ -4911,22 +4911,22 @@
         <v>1888.629049167647</v>
       </c>
       <c r="T9" t="n">
-        <v>1699.943945333632</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="U9" t="n">
-        <v>1481.449152931943</v>
+        <v>1670.134256765957</v>
       </c>
       <c r="V9" t="n">
-        <v>1253.053530380276</v>
+        <v>1441.738634214291</v>
       </c>
       <c r="W9" t="n">
-        <v>1011.737661613587</v>
+        <v>1200.422765447601</v>
       </c>
       <c r="X9" t="n">
-        <v>1011.737661613587</v>
+        <v>1002.505777325396</v>
       </c>
       <c r="Y9" t="n">
-        <v>819.2163352631653</v>
+        <v>809.9844509749746</v>
       </c>
     </row>
     <row r="10">
@@ -4981,22 +4981,22 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q10" t="n">
-        <v>541.8904201801125</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R10" t="n">
-        <v>541.8904201801125</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="S10" t="n">
-        <v>328.1806575838001</v>
+        <v>275.2032092855204</v>
       </c>
       <c r="T10" t="n">
-        <v>328.1806575838001</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="U10" t="n">
-        <v>328.1806575838001</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="V10" t="n">
-        <v>328.1806575838001</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W10" t="n">
         <v>42.02425610119923</v>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1293.780145458487</v>
+        <v>936.4758841160051</v>
       </c>
       <c r="C11" t="n">
-        <v>1026.422311547061</v>
+        <v>669.1180502045789</v>
       </c>
       <c r="D11" t="n">
-        <v>768.1742715300511</v>
+        <v>410.8700101875688</v>
       </c>
       <c r="E11" t="n">
-        <v>629.1153598344932</v>
+        <v>410.8700101875688</v>
       </c>
       <c r="F11" t="n">
-        <v>629.1153598344932</v>
+        <v>410.8700101875688</v>
       </c>
       <c r="G11" t="n">
-        <v>327.5872980444476</v>
+        <v>109.3419483975233</v>
       </c>
       <c r="H11" t="n">
         <v>109.3419483975233</v>
@@ -5039,25 +5039,25 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J11" t="n">
-        <v>123.0992186348914</v>
+        <v>235.395082488018</v>
       </c>
       <c r="K11" t="n">
-        <v>363.2395906796742</v>
+        <v>475.5354545328008</v>
       </c>
       <c r="L11" t="n">
-        <v>711.1249637646204</v>
+        <v>907.8164515913929</v>
       </c>
       <c r="M11" t="n">
-        <v>1216.659993870835</v>
+        <v>1301.055617844481</v>
       </c>
       <c r="N11" t="n">
-        <v>1707.287216411677</v>
+        <v>1679.386976532197</v>
       </c>
       <c r="O11" t="n">
-        <v>2124.587664737638</v>
+        <v>2096.687424858157</v>
       </c>
       <c r="P11" t="n">
-        <v>2352.744561193691</v>
+        <v>2437.140185167337</v>
       </c>
       <c r="Q11" t="n">
         <v>2531.572438853874</v>
@@ -5066,25 +5066,25 @@
         <v>2555.033718104287</v>
       </c>
       <c r="S11" t="n">
-        <v>2482.380667490407</v>
+        <v>2482.81843304778</v>
       </c>
       <c r="T11" t="n">
-        <v>2482.380667490407</v>
+        <v>2373.035411534558</v>
       </c>
       <c r="U11" t="n">
-        <v>2342.071255960168</v>
+        <v>2232.726000004318</v>
       </c>
       <c r="V11" t="n">
-        <v>2119.667906611875</v>
+        <v>2010.322650656026</v>
       </c>
       <c r="W11" t="n">
-        <v>2119.667906611875</v>
+        <v>1762.363645269394</v>
       </c>
       <c r="X11" t="n">
-        <v>1852.213690889135</v>
+        <v>1494.909429546653</v>
       </c>
       <c r="Y11" t="n">
-        <v>1573.24776022074</v>
+        <v>1215.943498878258</v>
       </c>
     </row>
     <row r="12">
@@ -5106,7 +5106,7 @@
         <v>468.130497692063</v>
       </c>
       <c r="F12" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G12" t="n">
         <v>219.4208171253267</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>348.7421712453793</v>
+        <v>348.7421712453796</v>
       </c>
       <c r="C13" t="n">
-        <v>293.7021264628261</v>
+        <v>293.7021264628263</v>
       </c>
       <c r="D13" t="n">
-        <v>255.2061580463552</v>
+        <v>255.2061580463554</v>
       </c>
       <c r="E13" t="n">
         <v>217.7730685634406</v>
       </c>
       <c r="F13" t="n">
-        <v>179.8683383449841</v>
+        <v>179.8683383449842</v>
       </c>
       <c r="G13" t="n">
-        <v>125.5245144686005</v>
+        <v>125.5245144686006</v>
       </c>
       <c r="H13" t="n">
-        <v>80.72779400364078</v>
+        <v>80.72779400364081</v>
       </c>
       <c r="I13" t="n">
         <v>51.10067436208574</v>
@@ -5215,7 +5215,7 @@
         <v>1135.104519460671</v>
       </c>
       <c r="P13" t="n">
-        <v>1310.368867041936</v>
+        <v>1310.368867041935</v>
       </c>
       <c r="Q13" t="n">
         <v>1384.894282641542</v>
@@ -5230,19 +5230,19 @@
         <v>1132.211559742586</v>
       </c>
       <c r="U13" t="n">
-        <v>959.5972449874525</v>
+        <v>959.5972449874528</v>
       </c>
       <c r="V13" t="n">
-        <v>813.4378653016413</v>
+        <v>813.4378653016418</v>
       </c>
       <c r="W13" t="n">
-        <v>641.8573885748069</v>
+        <v>641.8573885748074</v>
       </c>
       <c r="X13" t="n">
-        <v>525.1808492259491</v>
+        <v>525.1808492259495</v>
       </c>
       <c r="Y13" t="n">
-        <v>417.7216151739926</v>
+        <v>417.721615173993</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1476.25825481811</v>
+        <v>936.0381185586322</v>
       </c>
       <c r="C14" t="n">
-        <v>1208.900420906683</v>
+        <v>827.1693299600832</v>
       </c>
       <c r="D14" t="n">
-        <v>1208.900420906683</v>
+        <v>568.9212899430734</v>
       </c>
       <c r="E14" t="n">
-        <v>928.6906257685566</v>
+        <v>568.9212899430734</v>
       </c>
       <c r="F14" t="n">
-        <v>629.1153598344933</v>
+        <v>269.34602400901</v>
       </c>
       <c r="G14" t="n">
-        <v>327.5872980444477</v>
+        <v>269.3460240090101</v>
       </c>
       <c r="H14" t="n">
-        <v>109.3419483975233</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I14" t="n">
         <v>51.10067436208574</v>
@@ -5279,13 +5279,13 @@
         <v>235.395082488018</v>
       </c>
       <c r="K14" t="n">
-        <v>587.8313183859275</v>
+        <v>559.9310785064469</v>
       </c>
       <c r="L14" t="n">
-        <v>935.7166914708737</v>
+        <v>1020.11231544452</v>
       </c>
       <c r="M14" t="n">
-        <v>1328.955857723962</v>
+        <v>1413.351481697608</v>
       </c>
       <c r="N14" t="n">
         <v>1791.682840385323</v>
@@ -5294,7 +5294,7 @@
         <v>2096.687424858157</v>
       </c>
       <c r="P14" t="n">
-        <v>2437.140185167337</v>
+        <v>2324.84432131421</v>
       </c>
       <c r="Q14" t="n">
         <v>2531.572438853874</v>
@@ -5303,25 +5303,25 @@
         <v>2555.033718104287</v>
       </c>
       <c r="S14" t="n">
-        <v>2555.033718104287</v>
+        <v>2482.380667490407</v>
       </c>
       <c r="T14" t="n">
-        <v>2445.250696591064</v>
+        <v>2372.597645977185</v>
       </c>
       <c r="U14" t="n">
-        <v>2304.941285060825</v>
+        <v>2232.288234446945</v>
       </c>
       <c r="V14" t="n">
-        <v>2082.537935712533</v>
+        <v>2009.884885098653</v>
       </c>
       <c r="W14" t="n">
-        <v>1834.5789303259</v>
+        <v>1761.925879712021</v>
       </c>
       <c r="X14" t="n">
-        <v>1567.12471460316</v>
+        <v>1494.47166398928</v>
       </c>
       <c r="Y14" t="n">
-        <v>1476.25825481811</v>
+        <v>1215.505733320885</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>930.4134348641297</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C15" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D15" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E15" t="n">
-        <v>482.8431151521678</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F15" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G15" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652219</v>
       </c>
       <c r="H15" t="n">
         <v>119.4829596720247</v>
@@ -5355,13 +5355,13 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J15" t="n">
-        <v>111.354820895192</v>
+        <v>111.3548208951919</v>
       </c>
       <c r="K15" t="n">
         <v>340.8453734553806</v>
       </c>
       <c r="L15" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M15" t="n">
         <v>1191.700572135723</v>
@@ -5379,28 +5379,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R15" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S15" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T15" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U15" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V15" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W15" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X15" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y15" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="16">
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>348.7421712453797</v>
+        <v>348.7421712453796</v>
       </c>
       <c r="C16" t="n">
-        <v>293.7021264628263</v>
+        <v>293.7021264628262</v>
       </c>
       <c r="D16" t="n">
         <v>255.2061580463554</v>
       </c>
       <c r="E16" t="n">
-        <v>217.7730685634407</v>
+        <v>217.7730685634406</v>
       </c>
       <c r="F16" t="n">
         <v>179.8683383449842</v>
@@ -5437,7 +5437,7 @@
         <v>104.5344386772431</v>
       </c>
       <c r="K16" t="n">
-        <v>250.4344902750131</v>
+        <v>250.4344902750132</v>
       </c>
       <c r="L16" t="n">
         <v>463.3374335283993</v>
@@ -5446,7 +5446,7 @@
         <v>693.6268035091277</v>
       </c>
       <c r="N16" t="n">
-        <v>924.3450091118546</v>
+        <v>924.3450091118548</v>
       </c>
       <c r="O16" t="n">
         <v>1135.104519460671</v>
@@ -5455,7 +5455,7 @@
         <v>1310.368867041936</v>
       </c>
       <c r="Q16" t="n">
-        <v>1384.894282641542</v>
+        <v>1384.894282641543</v>
       </c>
       <c r="R16" t="n">
         <v>1349.948426011687</v>
@@ -5464,22 +5464,22 @@
         <v>1250.814588171141</v>
       </c>
       <c r="T16" t="n">
-        <v>1132.211559742586</v>
+        <v>1132.211559742587</v>
       </c>
       <c r="U16" t="n">
-        <v>959.5972449874528</v>
+        <v>959.5972449874529</v>
       </c>
       <c r="V16" t="n">
-        <v>813.437865301642</v>
+        <v>813.4378653016419</v>
       </c>
       <c r="W16" t="n">
         <v>641.8573885748074</v>
       </c>
       <c r="X16" t="n">
-        <v>525.1808492259496</v>
+        <v>525.1808492259495</v>
       </c>
       <c r="Y16" t="n">
-        <v>417.7216151739931</v>
+        <v>417.721615173993</v>
       </c>
     </row>
     <row r="17">
@@ -5495,10 +5495,10 @@
         <v>1147.761190413098</v>
       </c>
       <c r="D17" t="n">
-        <v>942.7443621478541</v>
+        <v>942.744362147854</v>
       </c>
       <c r="E17" t="n">
-        <v>715.7657787614932</v>
+        <v>715.765778761493</v>
       </c>
       <c r="F17" t="n">
         <v>469.4217245791957</v>
@@ -5513,25 +5513,25 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J17" t="n">
-        <v>287.5669931259238</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K17" t="n">
-        <v>527.7073651707066</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L17" t="n">
-        <v>875.5927382556529</v>
+        <v>711.1249637646204</v>
       </c>
       <c r="M17" t="n">
-        <v>1268.831904508741</v>
+        <v>1104.364130017708</v>
       </c>
       <c r="N17" t="n">
         <v>1647.163263196456</v>
       </c>
       <c r="O17" t="n">
-        <v>2067.976793470664</v>
+        <v>1952.16784766929</v>
       </c>
       <c r="P17" t="n">
-        <v>2460.60146441775</v>
+        <v>2344.792518616376</v>
       </c>
       <c r="Q17" t="n">
         <v>2555.033718104287</v>
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>930.4134348641297</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C18" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D18" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E18" t="n">
-        <v>482.8431151521678</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F18" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G18" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652219</v>
       </c>
       <c r="H18" t="n">
-        <v>119.4829596720247</v>
+        <v>104.77034221192</v>
       </c>
       <c r="I18" t="n">
         <v>51.10067436208574</v>
       </c>
       <c r="J18" t="n">
-        <v>111.3548208951919</v>
+        <v>111.354820895192</v>
       </c>
       <c r="K18" t="n">
         <v>340.8453734553806</v>
       </c>
       <c r="L18" t="n">
-        <v>706.6672186254962</v>
+        <v>706.6672186254963</v>
       </c>
       <c r="M18" t="n">
         <v>1191.700572135723</v>
@@ -5619,25 +5619,25 @@
         <v>2495.249449199232</v>
       </c>
       <c r="S18" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T18" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U18" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V18" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W18" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X18" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y18" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>54.02211951749091</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C19" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D19" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E19" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="F19" t="n">
-        <v>52.21328648670347</v>
+        <v>66.12215891288227</v>
       </c>
       <c r="G19" t="n">
-        <v>51.10067436208574</v>
+        <v>65.00954678826454</v>
       </c>
       <c r="H19" t="n">
-        <v>51.10067436208574</v>
+        <v>73.27619169846319</v>
       </c>
       <c r="I19" t="n">
-        <v>51.10067436208574</v>
+        <v>73.27619169846319</v>
       </c>
       <c r="J19" t="n">
-        <v>97.31943502373917</v>
+        <v>73.27619169846319</v>
       </c>
       <c r="K19" t="n">
-        <v>130.9236227683826</v>
+        <v>106.8803794431066</v>
       </c>
       <c r="L19" t="n">
-        <v>231.5307021686421</v>
+        <v>207.4874588433661</v>
       </c>
       <c r="M19" t="n">
-        <v>349.5242082962438</v>
+        <v>325.4809649709678</v>
       </c>
       <c r="N19" t="n">
-        <v>467.9465500458442</v>
+        <v>448.912461366242</v>
       </c>
       <c r="O19" t="n">
-        <v>566.4101965415339</v>
+        <v>547.3761078619317</v>
       </c>
       <c r="P19" t="n">
-        <v>629.3786802696717</v>
+        <v>610.3445915900695</v>
       </c>
       <c r="Q19" t="n">
-        <v>629.3786802696717</v>
+        <v>610.3445915900695</v>
       </c>
       <c r="R19" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S19" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T19" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U19" t="n">
-        <v>398.7211345007349</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V19" t="n">
-        <v>305.7929665666898</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W19" t="n">
-        <v>187.4437015916211</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X19" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y19" t="n">
-        <v>69.77035169433847</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="20">
@@ -5747,31 +5747,31 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I20" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J20" t="n">
         <v>123.0992186348914</v>
       </c>
       <c r="K20" t="n">
-        <v>479.0485364810483</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L20" t="n">
-        <v>826.9339095659946</v>
+        <v>875.5927382556528</v>
       </c>
       <c r="M20" t="n">
-        <v>1220.173075819082</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N20" t="n">
-        <v>1762.97220899783</v>
+        <v>1647.163263196456</v>
       </c>
       <c r="O20" t="n">
-        <v>2067.976793470664</v>
+        <v>1992.343603582346</v>
       </c>
       <c r="P20" t="n">
-        <v>2460.60146441775</v>
+        <v>2384.968274529432</v>
       </c>
       <c r="Q20" t="n">
-        <v>2555.033718104287</v>
+        <v>2479.400528215969</v>
       </c>
       <c r="R20" t="n">
         <v>2555.033718104287</v>
@@ -5805,34 +5805,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>915.700817404025</v>
+        <v>930.4134348641297</v>
       </c>
       <c r="C21" t="n">
-        <v>753.9971446449797</v>
+        <v>768.7097621050845</v>
       </c>
       <c r="D21" t="n">
-        <v>615.1585076351918</v>
+        <v>629.8711250952965</v>
       </c>
       <c r="E21" t="n">
-        <v>468.130497692063</v>
+        <v>482.8431151521678</v>
       </c>
       <c r="F21" t="n">
-        <v>333.4366996419374</v>
+        <v>348.1493171020421</v>
       </c>
       <c r="G21" t="n">
-        <v>204.7081996652219</v>
+        <v>219.4208171253267</v>
       </c>
       <c r="H21" t="n">
-        <v>104.77034221192</v>
+        <v>119.4829596720247</v>
       </c>
       <c r="I21" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J21" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K21" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L21" t="n">
         <v>706.6672186254962</v>
@@ -5853,28 +5853,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R21" t="n">
-        <v>2495.249449199232</v>
+        <v>2509.962066659337</v>
       </c>
       <c r="S21" t="n">
-        <v>2342.449962211973</v>
+        <v>2357.162579672078</v>
       </c>
       <c r="T21" t="n">
-        <v>2153.764858377958</v>
+        <v>2168.477475838063</v>
       </c>
       <c r="U21" t="n">
-        <v>1935.270065976268</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V21" t="n">
-        <v>1706.874443424602</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W21" t="n">
-        <v>1465.558574657912</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X21" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y21" t="n">
-        <v>1075.120260185286</v>
+        <v>1089.832877645391</v>
       </c>
     </row>
     <row r="22">
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>54.02211951749091</v>
+        <v>54.02211951749089</v>
       </c>
       <c r="C22" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="D22" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="E22" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="F22" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="G22" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="H22" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I22" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J22" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="K22" t="n">
-        <v>84.70486210672915</v>
+        <v>84.70486210672914</v>
       </c>
       <c r="L22" t="n">
         <v>185.3119415069887</v>
       </c>
       <c r="M22" t="n">
-        <v>349.5242082962438</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N22" t="n">
         <v>467.9465500458442</v>
@@ -5941,19 +5941,19 @@
         <v>518.1042375041027</v>
       </c>
       <c r="U22" t="n">
-        <v>398.7211345007349</v>
+        <v>398.7211345007348</v>
       </c>
       <c r="V22" t="n">
-        <v>305.7929665666898</v>
+        <v>305.7929665666896</v>
       </c>
       <c r="W22" t="n">
-        <v>187.4437015916211</v>
+        <v>187.443701591621</v>
       </c>
       <c r="X22" t="n">
         <v>123.9983739945291</v>
       </c>
       <c r="Y22" t="n">
-        <v>69.77035169433847</v>
+        <v>69.77035169433844</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1361.887812572759</v>
+        <v>1361.887812572758</v>
       </c>
       <c r="C23" t="n">
         <v>1147.761190413098</v>
@@ -5975,13 +5975,13 @@
         <v>715.765778761493</v>
       </c>
       <c r="F23" t="n">
-        <v>469.4217245791957</v>
+        <v>469.4217245791956</v>
       </c>
       <c r="G23" t="n">
         <v>221.1248745409159</v>
       </c>
       <c r="H23" t="n">
-        <v>56.11073664575746</v>
+        <v>56.11073664575745</v>
       </c>
       <c r="I23" t="n">
         <v>51.10067436208573</v>
@@ -5990,19 +5990,19 @@
         <v>287.5669931259238</v>
       </c>
       <c r="K23" t="n">
-        <v>527.7073651707066</v>
+        <v>643.5163109720801</v>
       </c>
       <c r="L23" t="n">
-        <v>875.5927382556529</v>
+        <v>1155.869458548059</v>
       </c>
       <c r="M23" t="n">
-        <v>1433.299678999773</v>
+        <v>1549.108624801147</v>
       </c>
       <c r="N23" t="n">
-        <v>1811.631037687489</v>
+        <v>1927.439983488862</v>
       </c>
       <c r="O23" t="n">
-        <v>2116.635622160323</v>
+        <v>2232.444567961696</v>
       </c>
       <c r="P23" t="n">
         <v>2460.601464417749</v>
@@ -6011,22 +6011,22 @@
         <v>2555.033718104286</v>
       </c>
       <c r="R23" t="n">
-        <v>2555.033718104287</v>
+        <v>2555.033718104286</v>
       </c>
       <c r="S23" t="n">
         <v>2535.611879242173</v>
       </c>
       <c r="T23" t="n">
-        <v>2479.060069480717</v>
+        <v>2479.060069480716</v>
       </c>
       <c r="U23" t="n">
-        <v>2391.981869702243</v>
+        <v>2391.981869702242</v>
       </c>
       <c r="V23" t="n">
-        <v>2222.809732105717</v>
+        <v>2222.809732105716</v>
       </c>
       <c r="W23" t="n">
-        <v>2028.08193847085</v>
+        <v>2028.081938470849</v>
       </c>
       <c r="X23" t="n">
         <v>1813.858934499875</v>
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040245</v>
       </c>
       <c r="C24" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449792</v>
       </c>
       <c r="D24" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351913</v>
       </c>
       <c r="E24" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920625</v>
       </c>
       <c r="F24" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419369</v>
       </c>
       <c r="G24" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652215</v>
       </c>
       <c r="H24" t="n">
-        <v>119.4829596720247</v>
+        <v>104.7703422119195</v>
       </c>
       <c r="I24" t="n">
         <v>51.10067436208573</v>
@@ -6084,34 +6084,34 @@
         <v>2095.166169042996</v>
       </c>
       <c r="P24" t="n">
-        <v>2397.262088318693</v>
+        <v>2397.262088318692</v>
       </c>
       <c r="Q24" t="n">
-        <v>2555.033718104287</v>
+        <v>2555.033718104286</v>
       </c>
       <c r="R24" t="n">
-        <v>2495.249449199233</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S24" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211972</v>
       </c>
       <c r="T24" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U24" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V24" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W24" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X24" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535706</v>
       </c>
       <c r="Y24" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185285</v>
       </c>
     </row>
     <row r="25">
@@ -6142,16 +6142,16 @@
         <v>51.10067436208573</v>
       </c>
       <c r="I25" t="n">
-        <v>74.23504503930332</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J25" t="n">
-        <v>74.23504503930332</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="K25" t="n">
-        <v>107.8392327839467</v>
+        <v>84.70486210672914</v>
       </c>
       <c r="L25" t="n">
-        <v>208.4463121842062</v>
+        <v>231.5307021686421</v>
       </c>
       <c r="M25" t="n">
         <v>349.5242082962438</v>
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1652.229537859156</v>
+        <v>1652.229537859157</v>
       </c>
       <c r="C26" t="n">
-        <v>1398.363405813927</v>
+        <v>1398.363405813928</v>
       </c>
       <c r="D26" t="n">
-        <v>1153.607067663114</v>
+        <v>1153.607067663115</v>
       </c>
       <c r="E26" t="n">
-        <v>886.8889743911861</v>
+        <v>886.888974391186</v>
       </c>
       <c r="F26" t="n">
-        <v>600.8054103233202</v>
+        <v>600.8054103233201</v>
       </c>
       <c r="G26" t="n">
-        <v>312.769050399472</v>
+        <v>312.7690503994718</v>
       </c>
       <c r="H26" t="n">
         <v>108.0154026187449</v>
@@ -6224,13 +6224,13 @@
         <v>63.26583044950466</v>
       </c>
       <c r="J26" t="n">
-        <v>260.7834555744969</v>
+        <v>260.7834555744971</v>
       </c>
       <c r="K26" t="n">
-        <v>626.4429084714662</v>
+        <v>626.4429084714666</v>
       </c>
       <c r="L26" t="n">
-        <v>1099.847362408599</v>
+        <v>1099.8473624086</v>
       </c>
       <c r="M26" t="n">
         <v>1618.605609513874</v>
@@ -6257,16 +6257,16 @@
         <v>3007.838854080525</v>
       </c>
       <c r="U26" t="n">
-        <v>2881.021144416483</v>
+        <v>2881.021144416484</v>
       </c>
       <c r="V26" t="n">
         <v>2672.109496934389</v>
       </c>
       <c r="W26" t="n">
-        <v>2437.642193413953</v>
+        <v>2437.642193413954</v>
       </c>
       <c r="X26" t="n">
-        <v>2183.67967955741</v>
+        <v>2183.679679557411</v>
       </c>
       <c r="Y26" t="n">
         <v>1918.205450755212</v>
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>927.8659734914443</v>
+        <v>942.5785909515488</v>
       </c>
       <c r="C27" t="n">
-        <v>766.162300732399</v>
+        <v>780.8749181925035</v>
       </c>
       <c r="D27" t="n">
-        <v>627.3236637226111</v>
+        <v>642.0362811827156</v>
       </c>
       <c r="E27" t="n">
-        <v>480.2956537794823</v>
+        <v>495.0082712395867</v>
       </c>
       <c r="F27" t="n">
-        <v>345.6018557293567</v>
+        <v>360.3144731894611</v>
       </c>
       <c r="G27" t="n">
-        <v>216.8733557526412</v>
+        <v>231.5859732127456</v>
       </c>
       <c r="H27" t="n">
         <v>131.6481157594437</v>
@@ -6327,28 +6327,28 @@
         <v>2567.198874191706</v>
       </c>
       <c r="R27" t="n">
-        <v>2507.414605286652</v>
+        <v>2522.127222746756</v>
       </c>
       <c r="S27" t="n">
-        <v>2354.615118299392</v>
+        <v>2369.327735759497</v>
       </c>
       <c r="T27" t="n">
-        <v>2165.930014465378</v>
+        <v>2180.642631925482</v>
       </c>
       <c r="U27" t="n">
-        <v>1947.435222063688</v>
+        <v>1962.147839523792</v>
       </c>
       <c r="V27" t="n">
-        <v>1719.039599512022</v>
+        <v>1733.752216972126</v>
       </c>
       <c r="W27" t="n">
-        <v>1477.723730745332</v>
+        <v>1492.436348205436</v>
       </c>
       <c r="X27" t="n">
-        <v>1279.806742623126</v>
+        <v>1294.519360083231</v>
       </c>
       <c r="Y27" t="n">
-        <v>1087.285416272705</v>
+        <v>1101.99803373281</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>266.4654142694174</v>
+        <v>266.4654142694172</v>
       </c>
       <c r="C28" t="n">
-        <v>224.9170713530614</v>
+        <v>224.9170713530612</v>
       </c>
       <c r="D28" t="n">
-        <v>199.9128048027878</v>
+        <v>199.9128048027877</v>
       </c>
       <c r="E28" t="n">
-        <v>175.9714171860704</v>
+        <v>175.9714171860703</v>
       </c>
       <c r="F28" t="n">
-        <v>151.5583888338112</v>
+        <v>151.5583888338111</v>
       </c>
       <c r="G28" t="n">
-        <v>110.7062668236249</v>
+        <v>110.7062668236248</v>
       </c>
       <c r="H28" t="n">
-        <v>79.40124822486243</v>
+        <v>79.4012482248624</v>
       </c>
       <c r="I28" t="n">
         <v>63.26583044950466</v>
@@ -6385,16 +6385,16 @@
         <v>129.922811763722</v>
       </c>
       <c r="K28" t="n">
-        <v>289.046080360552</v>
+        <v>163.5269995083654</v>
       </c>
       <c r="L28" t="n">
-        <v>389.6531597608115</v>
+        <v>389.6531597608116</v>
       </c>
       <c r="M28" t="n">
-        <v>507.6466658884132</v>
+        <v>633.1657467406</v>
       </c>
       <c r="N28" t="n">
-        <v>751.5880884902002</v>
+        <v>877.1071693423869</v>
       </c>
       <c r="O28" t="n">
         <v>975.5708158380766</v>
@@ -6406,28 +6406,28 @@
         <v>1181.192208869805</v>
       </c>
       <c r="R28" t="n">
-        <v>1159.738054106147</v>
+        <v>1159.738054106146</v>
       </c>
       <c r="S28" t="n">
         <v>1074.095918131798</v>
       </c>
       <c r="T28" t="n">
-        <v>968.9845915694405</v>
+        <v>968.9845915694401</v>
       </c>
       <c r="U28" t="n">
-        <v>809.8619786805041</v>
+        <v>809.8619786805037</v>
       </c>
       <c r="V28" t="n">
-        <v>677.1943008608904</v>
+        <v>677.1943008608901</v>
       </c>
       <c r="W28" t="n">
-        <v>519.1055260002532</v>
+        <v>519.1055260002529</v>
       </c>
       <c r="X28" t="n">
-        <v>415.9206885175927</v>
+        <v>415.9206885175925</v>
       </c>
       <c r="Y28" t="n">
-        <v>321.9531563318335</v>
+        <v>321.9531563318333</v>
       </c>
     </row>
     <row r="29">
@@ -6449,19 +6449,19 @@
         <v>886.888974391186</v>
       </c>
       <c r="F29" t="n">
-        <v>600.8054103233201</v>
+        <v>600.8054103233203</v>
       </c>
       <c r="G29" t="n">
-        <v>312.7690503994719</v>
+        <v>312.769050399472</v>
       </c>
       <c r="H29" t="n">
         <v>108.0154026187449</v>
       </c>
       <c r="I29" t="n">
-        <v>63.26583044950463</v>
+        <v>63.26583044950467</v>
       </c>
       <c r="J29" t="n">
-        <v>260.7834555744975</v>
+        <v>260.7834555744976</v>
       </c>
       <c r="K29" t="n">
         <v>626.4429084714669</v>
@@ -6522,7 +6522,7 @@
         <v>766.162300732399</v>
       </c>
       <c r="D30" t="n">
-        <v>627.3236637226111</v>
+        <v>642.0362811827156</v>
       </c>
       <c r="E30" t="n">
         <v>495.0082712395867</v>
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>266.4654142694172</v>
+        <v>266.4654142694173</v>
       </c>
       <c r="C31" t="n">
-        <v>224.9170713530612</v>
+        <v>224.9170713530613</v>
       </c>
       <c r="D31" t="n">
         <v>199.9128048027877</v>
@@ -6610,10 +6610,10 @@
         <v>151.5583888338111</v>
       </c>
       <c r="G31" t="n">
-        <v>110.7062668236248</v>
+        <v>110.7062668236249</v>
       </c>
       <c r="H31" t="n">
-        <v>79.4012482248624</v>
+        <v>79.40124822486243</v>
       </c>
       <c r="I31" t="n">
         <v>63.26583044950467</v>
@@ -6631,40 +6631,40 @@
         <v>633.1657467406</v>
       </c>
       <c r="N31" t="n">
-        <v>751.5880884902003</v>
+        <v>806.4923651951235</v>
       </c>
       <c r="O31" t="n">
-        <v>975.5708158380767</v>
+        <v>1030.475092543</v>
       </c>
       <c r="P31" t="n">
-        <v>1093.443576271137</v>
+        <v>1093.443576271138</v>
       </c>
       <c r="Q31" t="n">
         <v>1181.192208869805</v>
       </c>
       <c r="R31" t="n">
-        <v>1159.738054106146</v>
+        <v>1159.738054106147</v>
       </c>
       <c r="S31" t="n">
         <v>1074.095918131798</v>
       </c>
       <c r="T31" t="n">
-        <v>968.9845915694401</v>
+        <v>968.9845915694403</v>
       </c>
       <c r="U31" t="n">
-        <v>809.8619786805037</v>
+        <v>809.861978680504</v>
       </c>
       <c r="V31" t="n">
-        <v>677.1943008608901</v>
+        <v>677.1943008608903</v>
       </c>
       <c r="W31" t="n">
-        <v>519.1055260002529</v>
+        <v>519.1055260002531</v>
       </c>
       <c r="X31" t="n">
-        <v>415.9206885175925</v>
+        <v>415.9206885175926</v>
       </c>
       <c r="Y31" t="n">
-        <v>321.9531563318333</v>
+        <v>321.9531563318334</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1576.234575957423</v>
+        <v>1576.234575957424</v>
       </c>
       <c r="C32" t="n">
         <v>1332.769988976957</v>
@@ -6683,13 +6683,13 @@
         <v>1098.415195890907</v>
       </c>
       <c r="E32" t="n">
-        <v>842.0986476837397</v>
+        <v>842.0986476837402</v>
       </c>
       <c r="F32" t="n">
-        <v>566.4166286806362</v>
+        <v>566.4166286806367</v>
       </c>
       <c r="G32" t="n">
-        <v>288.7818138215503</v>
+        <v>288.7818138215507</v>
       </c>
       <c r="H32" t="n">
         <v>94.42971110558585</v>
@@ -6701,25 +6701,25 @@
         <v>267.793863444074</v>
       </c>
       <c r="K32" t="n">
-        <v>531.5873409959797</v>
+        <v>643.6478706590171</v>
       </c>
       <c r="L32" t="n">
-        <v>1015.186349251086</v>
+        <v>1127.246878914124</v>
       </c>
       <c r="M32" t="n">
-        <v>1544.139150674335</v>
+        <v>1656.199680337372</v>
       </c>
       <c r="N32" t="n">
-        <v>1922.47050936205</v>
+        <v>2034.531039025088</v>
       </c>
       <c r="O32" t="n">
-        <v>2363.188729005044</v>
+        <v>2475.249258668082</v>
       </c>
       <c r="P32" t="n">
-        <v>2727.059260631258</v>
+        <v>2839.119790294295</v>
       </c>
       <c r="Q32" t="n">
-        <v>2957.205149487955</v>
+        <v>3004.084200055401</v>
       </c>
       <c r="R32" t="n">
         <v>3004.084200055401</v>
@@ -6731,19 +6731,19 @@
         <v>2869.434621790219</v>
       </c>
       <c r="U32" t="n">
-        <v>2753.018457190938</v>
+        <v>2753.018457190939</v>
       </c>
       <c r="V32" t="n">
-        <v>2554.508354773605</v>
+        <v>2554.508354773606</v>
       </c>
       <c r="W32" t="n">
         <v>2330.442596317933</v>
       </c>
       <c r="X32" t="n">
-        <v>2086.881627526152</v>
+        <v>2086.881627526153</v>
       </c>
       <c r="Y32" t="n">
-        <v>1831.808943788716</v>
+        <v>1831.808943788717</v>
       </c>
     </row>
     <row r="33">
@@ -6771,7 +6771,7 @@
         <v>213.6892093042444</v>
       </c>
       <c r="H33" t="n">
-        <v>128.463969311047</v>
+        <v>113.7513518509424</v>
       </c>
       <c r="I33" t="n">
         <v>60.08168400110802</v>
@@ -6856,22 +6856,22 @@
         <v>60.08168400110802</v>
       </c>
       <c r="J34" t="n">
-        <v>136.933219633299</v>
+        <v>60.08168400110802</v>
       </c>
       <c r="K34" t="n">
-        <v>170.5374073779425</v>
+        <v>229.3995069159118</v>
       </c>
       <c r="L34" t="n">
-        <v>271.144486778202</v>
+        <v>380.078541197378</v>
       </c>
       <c r="M34" t="n">
-        <v>524.8516280759641</v>
+        <v>498.0720473249797</v>
       </c>
       <c r="N34" t="n">
-        <v>643.2739698255644</v>
+        <v>616.4943890745801</v>
       </c>
       <c r="O34" t="n">
-        <v>741.7376163212541</v>
+        <v>850.67167074043</v>
       </c>
       <c r="P34" t="n">
         <v>913.6401544685679</v>
@@ -6938,22 +6938,22 @@
         <v>287.5669931259238</v>
       </c>
       <c r="K35" t="n">
-        <v>692.175139661739</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.060512746685</v>
+        <v>875.5927382556529</v>
       </c>
       <c r="M35" t="n">
-        <v>1433.299678999773</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N35" t="n">
         <v>1811.631037687489</v>
       </c>
       <c r="O35" t="n">
-        <v>2232.444567961697</v>
+        <v>2116.635622160323</v>
       </c>
       <c r="P35" t="n">
-        <v>2460.60146441775</v>
+        <v>2344.792518616376</v>
       </c>
       <c r="Q35" t="n">
         <v>2555.033718104287</v>
@@ -7038,22 +7038,22 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R36" t="n">
-        <v>2495.249449199233</v>
+        <v>2509.962066659337</v>
       </c>
       <c r="S36" t="n">
-        <v>2342.449962211973</v>
+        <v>2357.162579672078</v>
       </c>
       <c r="T36" t="n">
-        <v>2153.764858377959</v>
+        <v>2168.477475838063</v>
       </c>
       <c r="U36" t="n">
-        <v>1935.270065976269</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V36" t="n">
-        <v>1706.874443424603</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W36" t="n">
-        <v>1465.558574657913</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X36" t="n">
         <v>1282.354203995812</v>
@@ -7069,10 +7069,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>54.02211951749089</v>
+        <v>52.90950739287317</v>
       </c>
       <c r="C37" t="n">
-        <v>52.21328648670345</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="D37" t="n">
         <v>52.21328648670345</v>
@@ -7090,55 +7090,55 @@
         <v>51.10067436208573</v>
       </c>
       <c r="I37" t="n">
-        <v>74.23504503930332</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J37" t="n">
-        <v>74.23504503930332</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="K37" t="n">
-        <v>107.8392327839467</v>
+        <v>84.70486210672914</v>
       </c>
       <c r="L37" t="n">
-        <v>208.4463121842062</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M37" t="n">
-        <v>349.5242082962438</v>
+        <v>348.4115961716261</v>
       </c>
       <c r="N37" t="n">
-        <v>467.9465500458442</v>
+        <v>466.8339379212265</v>
       </c>
       <c r="O37" t="n">
-        <v>566.4101965415339</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P37" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q37" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R37" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S37" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T37" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U37" t="n">
-        <v>398.7211345007348</v>
+        <v>397.608522376117</v>
       </c>
       <c r="V37" t="n">
-        <v>305.7929665666896</v>
+        <v>304.6803544420719</v>
       </c>
       <c r="W37" t="n">
-        <v>187.443701591621</v>
+        <v>186.3310894670033</v>
       </c>
       <c r="X37" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y37" t="n">
-        <v>69.77035169433844</v>
+        <v>68.65773956972072</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1361.887812572759</v>
+        <v>1361.887812572758</v>
       </c>
       <c r="C38" t="n">
         <v>1147.761190413098</v>
       </c>
       <c r="D38" t="n">
-        <v>942.7443621478541</v>
+        <v>942.744362147854</v>
       </c>
       <c r="E38" t="n">
-        <v>715.7657787614932</v>
+        <v>715.765778761493</v>
       </c>
       <c r="F38" t="n">
-        <v>469.4217245791957</v>
+        <v>469.4217245791956</v>
       </c>
       <c r="G38" t="n">
         <v>221.1248745409159</v>
       </c>
       <c r="H38" t="n">
-        <v>56.11073664575746</v>
+        <v>56.11073664575745</v>
       </c>
       <c r="I38" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J38" t="n">
-        <v>123.0992186348914</v>
+        <v>238.9081644362648</v>
       </c>
       <c r="K38" t="n">
-        <v>363.2395906796742</v>
+        <v>643.51631097208</v>
       </c>
       <c r="L38" t="n">
-        <v>875.5927382556528</v>
+        <v>991.4016840570263</v>
       </c>
       <c r="M38" t="n">
-        <v>1268.831904508741</v>
+        <v>1549.108624801147</v>
       </c>
       <c r="N38" t="n">
-        <v>1811.631037687489</v>
+        <v>1927.439983488862</v>
       </c>
       <c r="O38" t="n">
-        <v>2156.811378073379</v>
+        <v>2232.444567961696</v>
       </c>
       <c r="P38" t="n">
-        <v>2384.968274529432</v>
+        <v>2460.601464417749</v>
       </c>
       <c r="Q38" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104286</v>
       </c>
       <c r="R38" t="n">
-        <v>2555.033718104287</v>
+        <v>2555.033718104286</v>
       </c>
       <c r="S38" t="n">
         <v>2535.611879242173</v>
       </c>
       <c r="T38" t="n">
-        <v>2479.060069480717</v>
+        <v>2479.060069480716</v>
       </c>
       <c r="U38" t="n">
-        <v>2391.981869702243</v>
+        <v>2391.981869702242</v>
       </c>
       <c r="V38" t="n">
-        <v>2222.809732105717</v>
+        <v>2222.809732105716</v>
       </c>
       <c r="W38" t="n">
-        <v>2028.08193847085</v>
+        <v>2028.081938470849</v>
       </c>
       <c r="X38" t="n">
         <v>1813.858934499875</v>
       </c>
       <c r="Y38" t="n">
-        <v>1588.124215583246</v>
+        <v>1588.124215583245</v>
       </c>
     </row>
     <row r="39">
@@ -7248,16 +7248,16 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I39" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J39" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K39" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L39" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M39" t="n">
         <v>1191.700572135723</v>
@@ -7266,22 +7266,22 @@
         <v>1702.966218258845</v>
       </c>
       <c r="O39" t="n">
-        <v>2095.166169042996</v>
+        <v>2095.166169042995</v>
       </c>
       <c r="P39" t="n">
-        <v>2397.262088318693</v>
+        <v>2397.262088318692</v>
       </c>
       <c r="Q39" t="n">
-        <v>2555.033718104287</v>
+        <v>2555.033718104286</v>
       </c>
       <c r="R39" t="n">
-        <v>2495.249449199232</v>
+        <v>2509.962066659337</v>
       </c>
       <c r="S39" t="n">
-        <v>2342.449962211973</v>
+        <v>2357.162579672078</v>
       </c>
       <c r="T39" t="n">
-        <v>2153.764858377958</v>
+        <v>2168.477475838063</v>
       </c>
       <c r="U39" t="n">
         <v>1949.982683436373</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>54.02211951749091</v>
+        <v>52.90950739287317</v>
       </c>
       <c r="C40" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="D40" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="E40" t="n">
-        <v>52.21328648670347</v>
+        <v>66.5844139977867</v>
       </c>
       <c r="F40" t="n">
-        <v>52.21328648670347</v>
+        <v>66.5844139977867</v>
       </c>
       <c r="G40" t="n">
-        <v>51.10067436208574</v>
+        <v>65.47180187316897</v>
       </c>
       <c r="H40" t="n">
-        <v>51.10067436208574</v>
+        <v>65.47180187316897</v>
       </c>
       <c r="I40" t="n">
-        <v>74.23504503930334</v>
+        <v>88.60617255038656</v>
       </c>
       <c r="J40" t="n">
-        <v>79.39795846875474</v>
+        <v>88.60617255038656</v>
       </c>
       <c r="K40" t="n">
-        <v>113.0021462133981</v>
+        <v>129.8110106437649</v>
       </c>
       <c r="L40" t="n">
-        <v>213.6092256136577</v>
+        <v>230.4180900440244</v>
       </c>
       <c r="M40" t="n">
-        <v>331.6027317412594</v>
+        <v>348.4115961716261</v>
       </c>
       <c r="N40" t="n">
-        <v>450.0250734908598</v>
+        <v>466.8339379212265</v>
       </c>
       <c r="O40" t="n">
-        <v>548.4887199865494</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P40" t="n">
-        <v>611.4572037146872</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q40" t="n">
-        <v>611.4572037146872</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R40" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S40" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T40" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U40" t="n">
-        <v>398.7211345007349</v>
+        <v>397.608522376117</v>
       </c>
       <c r="V40" t="n">
-        <v>305.7929665666898</v>
+        <v>304.6803544420719</v>
       </c>
       <c r="W40" t="n">
-        <v>187.4437015916211</v>
+        <v>186.3310894670033</v>
       </c>
       <c r="X40" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.77035169433847</v>
+        <v>68.65773956972072</v>
       </c>
     </row>
     <row r="41">
@@ -7385,40 +7385,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1389.939608850681</v>
+        <v>1106.447613016322</v>
       </c>
       <c r="C41" t="n">
-        <v>1143.635330995507</v>
+        <v>1106.447613016322</v>
       </c>
       <c r="D41" t="n">
-        <v>906.4408470347495</v>
+        <v>869.2531290555645</v>
       </c>
       <c r="E41" t="n">
-        <v>647.2846079528751</v>
+        <v>610.0968899736901</v>
       </c>
       <c r="F41" t="n">
-        <v>368.7628980750642</v>
+        <v>331.575180095879</v>
       </c>
       <c r="G41" t="n">
-        <v>88.28839234127096</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H41" t="n">
-        <v>88.28839234127095</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I41" t="n">
         <v>51.10067436208574</v>
       </c>
       <c r="J41" t="n">
-        <v>124.9564814456058</v>
+        <v>256.0296727787509</v>
       </c>
       <c r="K41" t="n">
-        <v>498.0273076342482</v>
+        <v>496.1700448235337</v>
       </c>
       <c r="L41" t="n">
         <v>845.9126807191944</v>
       </c>
       <c r="M41" t="n">
-        <v>1372.082301116142</v>
+        <v>1239.151846972282</v>
       </c>
       <c r="N41" t="n">
         <v>1750.413659803858</v>
@@ -7445,16 +7445,16 @@
         <v>2295.448902615703</v>
       </c>
       <c r="V41" t="n">
-        <v>2094.099109323663</v>
+        <v>2096.080155331334</v>
       </c>
       <c r="W41" t="n">
-        <v>1867.193659993282</v>
+        <v>1869.174706000954</v>
       </c>
       <c r="X41" t="n">
-        <v>1648.353667556681</v>
+        <v>1622.774046334466</v>
       </c>
       <c r="Y41" t="n">
-        <v>1648.353667556681</v>
+        <v>1364.861671722323</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>930.4134348641297</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C42" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D42" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E42" t="n">
-        <v>482.8431151521678</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F42" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G42" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652219</v>
       </c>
       <c r="H42" t="n">
         <v>119.4829596720247</v>
@@ -7488,13 +7488,13 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J42" t="n">
-        <v>111.354820895192</v>
+        <v>111.3548208951919</v>
       </c>
       <c r="K42" t="n">
         <v>340.8453734553806</v>
       </c>
       <c r="L42" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M42" t="n">
         <v>1191.700572135723</v>
@@ -7518,22 +7518,22 @@
         <v>2342.449962211973</v>
       </c>
       <c r="T42" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U42" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V42" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W42" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X42" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y42" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>201.367278851613</v>
+        <v>201.3672788516136</v>
       </c>
       <c r="C43" t="n">
-        <v>167.380790125312</v>
+        <v>167.3807901253126</v>
       </c>
       <c r="D43" t="n">
-        <v>149.9383777650935</v>
+        <v>149.938377765094</v>
       </c>
       <c r="E43" t="n">
-        <v>133.5588443384312</v>
+        <v>133.5588443384315</v>
       </c>
       <c r="F43" t="n">
-        <v>116.7076701762271</v>
+        <v>116.7076701762273</v>
       </c>
       <c r="G43" t="n">
-        <v>83.41740235609583</v>
+        <v>83.41740235609601</v>
       </c>
       <c r="H43" t="n">
-        <v>59.67423794738843</v>
+        <v>59.67423794738852</v>
       </c>
       <c r="I43" t="n">
         <v>51.10067436208574</v>
@@ -7570,49 +7570,49 @@
         <v>51.10067436208574</v>
       </c>
       <c r="K43" t="n">
-        <v>217.6353162505887</v>
+        <v>188.5614140621578</v>
       </c>
       <c r="L43" t="n">
-        <v>422.0989476062753</v>
+        <v>289.1684934624174</v>
       </c>
       <c r="M43" t="n">
-        <v>673.0229078777367</v>
+        <v>540.0924537338786</v>
       </c>
       <c r="N43" t="n">
-        <v>791.445249627337</v>
+        <v>791.4452496273385</v>
       </c>
       <c r="O43" t="n">
-        <v>889.9088961230267</v>
+        <v>889.9088961230282</v>
       </c>
       <c r="P43" t="n">
-        <v>952.8773798511645</v>
+        <v>952.877379851166</v>
       </c>
       <c r="Q43" t="n">
-        <v>1048.037385741505</v>
+        <v>1048.037385741506</v>
       </c>
       <c r="R43" t="n">
-        <v>1034.145085167902</v>
+        <v>1034.145085167903</v>
       </c>
       <c r="S43" t="n">
-        <v>956.0648033836081</v>
+        <v>956.0648033836094</v>
       </c>
       <c r="T43" t="n">
-        <v>858.5153310113058</v>
+        <v>858.5153310113069</v>
       </c>
       <c r="U43" t="n">
-        <v>706.9545723124244</v>
+        <v>706.9545723124254</v>
       </c>
       <c r="V43" t="n">
-        <v>581.8487486828658</v>
+        <v>581.8487486828667</v>
       </c>
       <c r="W43" t="n">
-        <v>431.3218280122836</v>
+        <v>431.3218280122845</v>
       </c>
       <c r="X43" t="n">
-        <v>335.6988447196782</v>
+        <v>335.698844719679</v>
       </c>
       <c r="Y43" t="n">
-        <v>249.293166723974</v>
+        <v>249.2931667239747</v>
       </c>
     </row>
     <row r="44">
@@ -7622,52 +7622,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1306.65689670756</v>
+        <v>1362.378941620794</v>
       </c>
       <c r="C44" t="n">
-        <v>1060.352618852386</v>
+        <v>1116.074663765619</v>
       </c>
       <c r="D44" t="n">
-        <v>823.1581348916283</v>
+        <v>878.8801798048617</v>
       </c>
       <c r="E44" t="n">
-        <v>564.0018958097539</v>
+        <v>619.7239407229872</v>
       </c>
       <c r="F44" t="n">
-        <v>285.4801859319429</v>
+        <v>565.9546916657364</v>
       </c>
       <c r="G44" t="n">
-        <v>285.4801859319429</v>
+        <v>285.4801859319431</v>
       </c>
       <c r="H44" t="n">
-        <v>88.28839234127094</v>
+        <v>88.28839234127105</v>
       </c>
       <c r="I44" t="n">
         <v>51.10067436208573</v>
       </c>
       <c r="J44" t="n">
-        <v>123.0992186348914</v>
+        <v>256.0296727787509</v>
       </c>
       <c r="K44" t="n">
-        <v>496.1700448235338</v>
+        <v>629.1004989673932</v>
       </c>
       <c r="L44" t="n">
-        <v>844.05541790848</v>
+        <v>1022.9390044042</v>
       </c>
       <c r="M44" t="n">
-        <v>1237.294584161568</v>
+        <v>1416.178170657287</v>
       </c>
       <c r="N44" t="n">
-        <v>1615.625942849284</v>
+        <v>1794.509529345003</v>
       </c>
       <c r="O44" t="n">
-        <v>2053.560981465977</v>
+        <v>2099.514113817837</v>
       </c>
       <c r="P44" t="n">
-        <v>2283.575140732745</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q44" t="n">
-        <v>2510.937848563141</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R44" t="n">
         <v>2555.033718104287</v>
@@ -7676,22 +7676,22 @@
         <v>2503.43422354666</v>
       </c>
       <c r="T44" t="n">
-        <v>2415.545294496559</v>
+        <v>2414.70475808969</v>
       </c>
       <c r="U44" t="n">
-        <v>2296.289439022572</v>
+        <v>2295.448902615702</v>
       </c>
       <c r="V44" t="n">
-        <v>2296.289439022572</v>
+        <v>2094.099109323662</v>
       </c>
       <c r="W44" t="n">
-        <v>2069.383989692191</v>
+        <v>1867.193659993282</v>
       </c>
       <c r="X44" t="n">
-        <v>1822.983330025703</v>
+        <v>1620.793000326794</v>
       </c>
       <c r="Y44" t="n">
-        <v>1565.07095541356</v>
+        <v>1620.793000326794</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C45" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D45" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E45" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F45" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G45" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H45" t="n">
-        <v>119.4829596720247</v>
+        <v>104.7703422119204</v>
       </c>
       <c r="I45" t="n">
         <v>51.10067436208573</v>
@@ -7767,10 +7767,10 @@
         <v>1465.558574657913</v>
       </c>
       <c r="X45" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y45" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>201.3672788516129</v>
+        <v>201.3672788516137</v>
       </c>
       <c r="C46" t="n">
-        <v>167.380790125312</v>
+        <v>167.3807901253127</v>
       </c>
       <c r="D46" t="n">
-        <v>149.9383777650935</v>
+        <v>149.9383777650941</v>
       </c>
       <c r="E46" t="n">
-        <v>133.5588443384311</v>
+        <v>133.5588443384316</v>
       </c>
       <c r="F46" t="n">
-        <v>116.707670176227</v>
+        <v>116.7076701762274</v>
       </c>
       <c r="G46" t="n">
-        <v>83.41740235609581</v>
+        <v>83.41740235609605</v>
       </c>
       <c r="H46" t="n">
-        <v>59.67423794738842</v>
+        <v>59.67423794738853</v>
       </c>
       <c r="I46" t="n">
         <v>51.10067436208573</v>
       </c>
       <c r="J46" t="n">
-        <v>125.169028967976</v>
+        <v>125.1690289679759</v>
       </c>
       <c r="K46" t="n">
-        <v>291.7036708564791</v>
+        <v>158.7732167126193</v>
       </c>
       <c r="L46" t="n">
-        <v>392.3107502567386</v>
+        <v>259.3802961128789</v>
       </c>
       <c r="M46" t="n">
-        <v>635.2524596242173</v>
+        <v>377.3738022404806</v>
       </c>
       <c r="N46" t="n">
-        <v>886.6052555176773</v>
+        <v>628.7265981339405</v>
       </c>
       <c r="O46" t="n">
-        <v>985.0689020133669</v>
+        <v>860.1206987734896</v>
       </c>
       <c r="P46" t="n">
-        <v>1048.037385741505</v>
+        <v>952.8773798511662</v>
       </c>
       <c r="Q46" t="n">
-        <v>1048.037385741505</v>
+        <v>1048.037385741506</v>
       </c>
       <c r="R46" t="n">
-        <v>1034.145085167902</v>
+        <v>1034.145085167903</v>
       </c>
       <c r="S46" t="n">
-        <v>956.064803383608</v>
+        <v>956.0648033836096</v>
       </c>
       <c r="T46" t="n">
-        <v>858.5153310113056</v>
+        <v>858.5153310113071</v>
       </c>
       <c r="U46" t="n">
-        <v>706.9545723124243</v>
+        <v>706.9545723124256</v>
       </c>
       <c r="V46" t="n">
-        <v>581.8487486828657</v>
+        <v>581.8487486828669</v>
       </c>
       <c r="W46" t="n">
-        <v>431.3218280122836</v>
+        <v>431.3218280122848</v>
       </c>
       <c r="X46" t="n">
-        <v>335.6988447196781</v>
+        <v>335.6988447196792</v>
       </c>
       <c r="Y46" t="n">
-        <v>249.293166723974</v>
+        <v>249.2931667239749</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K2" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L2" t="n">
-        <v>542.9595789155856</v>
+        <v>385.3604112676706</v>
       </c>
       <c r="M2" t="n">
         <v>584.3675935406823</v>
@@ -7997,7 +7997,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q2" t="n">
-        <v>191.1361225057244</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8055,7 +8055,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K3" t="n">
         <v>343.8048081163522</v>
@@ -8064,7 +8064,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
-        <v>515.0104973883811</v>
+        <v>575.8732716642456</v>
       </c>
       <c r="N3" t="n">
         <v>106.7151410677083</v>
@@ -8295,16 +8295,16 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K6" t="n">
-        <v>343.8048081163522</v>
+        <v>257.830032283061</v>
       </c>
       <c r="L6" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M6" t="n">
-        <v>600.9852732216722</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N6" t="n">
-        <v>106.7151410677083</v>
+        <v>592.2165117277406</v>
       </c>
       <c r="O6" t="n">
         <v>512.0210150597484</v>
@@ -8313,7 +8313,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q6" t="n">
-        <v>187.1256982233128</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8529,7 +8529,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>163.9183459425315</v>
+        <v>110.8430489735533</v>
       </c>
       <c r="K9" t="n">
         <v>343.8048081163522</v>
@@ -8544,13 +8544,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O9" t="n">
-        <v>512.0210150597484</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P9" t="n">
-        <v>124.1300184260142</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8787,7 +8787,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>273.1004740566032</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9003,7 +9003,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>163.9183459425316</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
@@ -9495,7 +9495,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P21" t="n">
-        <v>414.0015992319179</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
         <v>273.1004740566038</v>
@@ -10902,7 +10902,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>343.8048081163523</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
@@ -11136,7 +11136,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>163.9183459425316</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
         <v>343.8048081163522</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>139.739374608143</v>
+        <v>277.4076971867455</v>
       </c>
       <c r="F11" t="n">
         <v>296.5795132747226</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>0.4333879017992217</v>
       </c>
       <c r="T11" t="n">
-        <v>108.6851912980902</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>245.4794153327662</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>276.6729386146302</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>156.9041548597488</v>
       </c>
       <c r="D14" t="n">
-        <v>255.6655596168399</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>277.4076971867455</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>298.5127811721451</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>57.6588612950832</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.92652010774084</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>186.2184761745121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -24449,7 +24449,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -25628,7 +25628,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>243.8412350766222</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25643,10 +25643,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>195.2198756547652</v>
+        <v>195.2198756547653</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>36.81584079939344</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25685,16 +25685,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>1.961235547595436</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>27.28506055758771</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>255.3332508660218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25874,10 +25874,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>222.5049362123544</v>
       </c>
       <c r="G44" t="n">
-        <v>277.6697606764553</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25916,13 +25916,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0.8321310428002988</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>199.3362953591195</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25931,7 +25931,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>255.3332508660219</v>
       </c>
     </row>
     <row r="45">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>547191.1056020573</v>
+        <v>547191.1056020572</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>547191.1056020573</v>
+        <v>547191.1056020572</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>767624.0604941823</v>
       </c>
       <c r="C2" t="n">
-        <v>767624.0604941823</v>
+        <v>767624.0604941824</v>
       </c>
       <c r="D2" t="n">
         <v>767624.0604941822</v>
       </c>
       <c r="E2" t="n">
-        <v>704701.5743308903</v>
+        <v>704701.57433089</v>
       </c>
       <c r="F2" t="n">
         <v>704701.57433089</v>
       </c>
       <c r="G2" t="n">
-        <v>767624.0604941807</v>
+        <v>767624.0604941803</v>
       </c>
       <c r="H2" t="n">
-        <v>767624.0604941804</v>
+        <v>767624.0604941803</v>
       </c>
       <c r="I2" t="n">
-        <v>767624.0604941808</v>
+        <v>767624.0604941805</v>
       </c>
       <c r="J2" t="n">
-        <v>767624.0604941818</v>
+        <v>767624.0604941819</v>
       </c>
       <c r="K2" t="n">
         <v>767624.0604941817</v>
       </c>
       <c r="L2" t="n">
-        <v>767624.0604941818</v>
+        <v>767624.0604941817</v>
       </c>
       <c r="M2" t="n">
-        <v>767624.0604941808</v>
+        <v>767624.0604941807</v>
       </c>
       <c r="N2" t="n">
-        <v>767624.0604941808</v>
+        <v>767624.0604941804</v>
       </c>
       <c r="O2" t="n">
-        <v>729588.1408027444</v>
+        <v>729588.1408027445</v>
       </c>
       <c r="P2" t="n">
-        <v>729588.1408027444</v>
+        <v>729588.1408027443</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>12363.64264081811</v>
+        <v>12363.64264081813</v>
       </c>
       <c r="E3" t="n">
         <v>124619.3675503042</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>42159.11970739857</v>
+        <v>42159.11970739855</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>33785.73726635003</v>
+        <v>33785.73726634997</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,13 +26421,13 @@
         <v>196502.7269656814</v>
       </c>
       <c r="D4" t="n">
-        <v>185775.7593332931</v>
+        <v>185775.7593332932</v>
       </c>
       <c r="E4" t="n">
         <v>139944.5430569389</v>
       </c>
       <c r="F4" t="n">
-        <v>139944.5430569388</v>
+        <v>139944.5430569389</v>
       </c>
       <c r="G4" t="n">
         <v>175623.1205402357</v>
@@ -26436,10 +26436,10 @@
         <v>175623.1205402357</v>
       </c>
       <c r="I4" t="n">
-        <v>175623.1205402356</v>
+        <v>175623.1205402357</v>
       </c>
       <c r="J4" t="n">
-        <v>176407.6115330476</v>
+        <v>176407.6115330477</v>
       </c>
       <c r="K4" t="n">
         <v>176407.6115330477</v>
@@ -26454,10 +26454,10 @@
         <v>175623.1205402357</v>
       </c>
       <c r="O4" t="n">
-        <v>154043.9723034646</v>
+        <v>154043.9723034645</v>
       </c>
       <c r="P4" t="n">
-        <v>154043.9723034646</v>
+        <v>154043.9723034645</v>
       </c>
     </row>
     <row r="5">
@@ -26509,7 +26509,7 @@
         <v>50124.72498934691</v>
       </c>
       <c r="P5" t="n">
-        <v>50124.72498934691</v>
+        <v>50124.7249893469</v>
       </c>
     </row>
     <row r="6">
@@ -26528,19 +26528,19 @@
         <v>503918.6238831594</v>
       </c>
       <c r="E6" t="n">
-        <v>391765.1906243525</v>
+        <v>391607.8844089439</v>
       </c>
       <c r="F6" t="n">
-        <v>516384.5581746564</v>
+        <v>516227.251959248</v>
       </c>
       <c r="G6" t="n">
-        <v>497039.0033539</v>
+        <v>497039.0033538997</v>
       </c>
       <c r="H6" t="n">
-        <v>539198.1230612984</v>
+        <v>539198.1230612983</v>
       </c>
       <c r="I6" t="n">
-        <v>539198.1230612987</v>
+        <v>539198.1230612985</v>
       </c>
       <c r="J6" t="n">
         <v>306389.8532461755</v>
@@ -26549,19 +26549,19 @@
         <v>532475.5656900534</v>
       </c>
       <c r="L6" t="n">
-        <v>483845.8533075817</v>
+        <v>483845.8533075814</v>
       </c>
       <c r="M6" t="n">
-        <v>515665.2522956822</v>
+        <v>515665.2522956821</v>
       </c>
       <c r="N6" t="n">
-        <v>539198.1230612987</v>
+        <v>539198.1230612984</v>
       </c>
       <c r="O6" t="n">
-        <v>491633.7062435828</v>
+        <v>491538.6164443545</v>
       </c>
       <c r="P6" t="n">
-        <v>525419.443509933</v>
+        <v>525324.3537107043</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="F2" t="n">
         <v>113.4301655082087</v>
@@ -26722,10 +26722,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="O2" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="P2" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
     </row>
     <row r="3">
@@ -26805,7 +26805,7 @@
         <v>638.7584295260717</v>
       </c>
       <c r="H4" t="n">
-        <v>638.7584295260717</v>
+        <v>638.7584295260716</v>
       </c>
       <c r="I4" t="n">
         <v>638.7584295260716</v>
@@ -26823,7 +26823,7 @@
         <v>638.7584295260716</v>
       </c>
       <c r="N4" t="n">
-        <v>638.7584295260717</v>
+        <v>638.7584295260716</v>
       </c>
       <c r="O4" t="n">
         <v>638.7584295260717</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>52.69889963424821</v>
+        <v>52.69889963424819</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.08805072149589</v>
+        <v>74.0880507214959</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>42.23217158293754</v>
+        <v>42.23217158293746</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27015,7 +27015,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>39.80183060495801</v>
+        <v>39.80183060495807</v>
       </c>
       <c r="E4" t="n">
         <v>113.4552282610814</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>637.5658217527688</v>
+        <v>637.5658217527687</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>52.69889963424821</v>
+        <v>52.69889963424819</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>74.08805072149589</v>
+        <v>74.0880507214959</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27261,7 +27261,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>39.80183060495801</v>
+        <v>39.80183060495807</v>
       </c>
       <c r="M4" t="n">
         <v>113.4552282610814</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>236.4595501305021</v>
       </c>
       <c r="D2" t="n">
-        <v>309.7196053004843</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
         <v>390.8378626949542</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>222.1153568062989</v>
@@ -27461,7 +27461,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27470,13 +27470,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27509,7 +27509,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>74.27648269951254</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27518,13 +27518,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>88.22661878807958</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27555,7 +27555,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
         <v>59.456666199969</v>
@@ -27585,7 +27585,7 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
-        <v>211.5726649703493</v>
+        <v>198.0922887562452</v>
       </c>
       <c r="T4" t="n">
         <v>230.8471636524779</v>
@@ -27594,13 +27594,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>158.4686496728279</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X4" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>219.8148072196457</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>148.393484436974</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>22.45673325172106</v>
       </c>
     </row>
     <row r="6">
@@ -27695,13 +27695,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>61.56588558195912</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
         <v>133.3468600696244</v>
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27755,7 +27755,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>202.97968044256</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C7" t="n">
-        <v>21.076944937522</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D7" t="n">
         <v>151.5411742405149</v>
@@ -27783,7 +27783,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
         <v>167.2305511458285</v>
@@ -27828,16 +27828,16 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
-        <v>284.3183371157911</v>
+        <v>15.70763571947964</v>
       </c>
       <c r="V7" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y7" t="n">
         <v>219.8148072196457</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>259.9955570142804</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>369.0957251250487</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>3.756718069075362</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -27929,16 +27929,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14.42851415765904</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5577298436975</v>
+        <v>62.91557522890456</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -27947,10 +27947,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27983,7 +27983,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -27995,7 +27995,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>6.280817577498887</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>63.70773940111974</v>
       </c>
       <c r="T10" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>284.3183371157911</v>
@@ -28071,7 +28071,7 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X10" t="n">
         <v>228.939939463578</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="C11" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="D11" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="E11" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="F11" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="G11" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="H11" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="I11" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>85.2481050238847</v>
       </c>
       <c r="M11" t="n">
-        <v>113.4301655082088</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>113.4301655082088</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="Q11" t="n">
-        <v>85.24810502388468</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="S11" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="T11" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="U11" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="V11" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="W11" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="X11" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="Y11" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
     </row>
     <row r="12">
@@ -28178,10 +28178,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>14.56549128550374</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>14.56549128550373</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="C13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="D13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="E13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="F13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="G13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="H13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="I13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="J13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="K13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="L13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="M13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="N13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="O13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="P13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="Q13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="R13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="S13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="T13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="U13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="V13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="W13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="X13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="Y13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
     </row>
     <row r="14">
@@ -28351,25 +28351,25 @@
         <v>113.4301655082087</v>
       </c>
       <c r="K14" t="n">
+        <v>85.2481050238849</v>
+      </c>
+      <c r="L14" t="n">
         <v>113.4301655082087</v>
       </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>85.24810502388482</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
         <v>113.4301655082087</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>113.4301655082087</v>
@@ -28421,7 +28421,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>14.56549128550373</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -28451,7 +28451,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>14.5654912855036</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -28509,7 +28509,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="K16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="L16" t="n">
         <v>113.4301655082087</v>
@@ -28585,28 +28585,28 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
       <c r="O17" t="n">
-        <v>116.9787331327008</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>116.9787331327012</v>
       </c>
       <c r="R17" t="n">
         <v>89.73190363910518</v>
@@ -28661,7 +28661,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>14.56549128550371</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28691,7 +28691,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>14.56549128550395</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -28731,19 +28731,19 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
-        <v>150.9558484244806</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="G19" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="H19" t="n">
-        <v>157.7789187685189</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="I19" t="n">
         <v>142.7610139533483</v>
       </c>
       <c r="J19" t="n">
-        <v>106.142283029922</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28755,7 +28755,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>5.059752167347327</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28767,7 +28767,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R19" t="n">
-        <v>148.0265635717656</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S19" t="n">
         <v>166.1290651424569</v>
@@ -28825,19 +28825,19 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>116.9787331327011</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>40.58157162934918</v>
       </c>
       <c r="P20" t="n">
         <v>166.1290651424569</v>
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>89.73190363910518</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S20" t="n">
         <v>166.1290651424569</v>
@@ -28898,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>14.56549128550371</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -28989,10 +28989,10 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>46.68561682995298</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>46.68561682995299</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29062,13 +29062,13 @@
         <v>166.1290651424569</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>116.9787331327006</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="M23" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -29077,7 +29077,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>116.9787331327004</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -29135,7 +29135,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>14.56549128550415</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29165,7 +29165,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>14.56549128550353</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -29214,7 +29214,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I25" t="n">
-        <v>166.1290651424569</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J25" t="n">
         <v>59.456666199969</v>
@@ -29223,10 +29223,10 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>46.68561682995301</v>
       </c>
       <c r="M25" t="n">
-        <v>23.31756564084432</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29369,7 +29369,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>14.56549128550336</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -29399,7 +29399,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -29457,25 +29457,25 @@
         <v>126.7869503557441</v>
       </c>
       <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
         <v>126.7869503557441</v>
       </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="N28" t="n">
         <v>126.7869503557441</v>
       </c>
       <c r="O28" t="n">
-        <v>126.7869503557441</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>126.7869503557441</v>
       </c>
       <c r="Q28" t="n">
-        <v>55.45886535850828</v>
+        <v>55.45886535850804</v>
       </c>
       <c r="R28" t="n">
         <v>126.7869503557441</v>
@@ -29594,10 +29594,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>14.56549128550347</v>
       </c>
       <c r="E30" t="n">
-        <v>14.56549128550341</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -29703,13 +29703,13 @@
         <v>126.7869503557441</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>55.45886535850828</v>
       </c>
       <c r="O31" t="n">
         <v>126.7869503557441</v>
       </c>
       <c r="P31" t="n">
-        <v>55.45886535850794</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>126.7869503557441</v>
@@ -29773,7 +29773,7 @@
         <v>137.0844799698589</v>
       </c>
       <c r="K32" t="n">
-        <v>23.89202576477064</v>
+        <v>137.0844799698589</v>
       </c>
       <c r="L32" t="n">
         <v>137.0844799698589</v>
@@ -29791,10 +29791,10 @@
         <v>137.0844799698589</v>
       </c>
       <c r="Q32" t="n">
-        <v>137.0844799698589</v>
+        <v>71.24460209552404</v>
       </c>
       <c r="R32" t="n">
-        <v>137.0844799698589</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S32" t="n">
         <v>137.0844799698589</v>
@@ -29843,10 +29843,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>14.56549128550358</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>14.56549128550356</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29928,25 +29928,25 @@
         <v>137.0844799698589</v>
       </c>
       <c r="J34" t="n">
+        <v>59.456666199969</v>
+      </c>
+      <c r="K34" t="n">
         <v>137.0844799698589</v>
       </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>50.57773220323912</v>
       </c>
       <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
         <v>137.0844799698589</v>
       </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
       <c r="P34" t="n">
-        <v>110.034398403208</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>137.0844799698589</v>
@@ -30010,25 +30010,25 @@
         <v>166.1290651424569</v>
       </c>
       <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
       <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
         <v>116.9787331327008</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>89.73190363910518</v>
@@ -30110,7 +30110,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -30128,7 +30128,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>14.56549128550344</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -30147,7 +30147,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D37" t="n">
-        <v>151.5411742405149</v>
+        <v>152.6650248714419</v>
       </c>
       <c r="E37" t="n">
         <v>150.4889240962943</v>
@@ -30162,7 +30162,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I37" t="n">
-        <v>166.1290651424569</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J37" t="n">
         <v>59.456666199969</v>
@@ -30174,7 +30174,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>23.31756564084432</v>
+        <v>45.56176619902598</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30244,22 +30244,22 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>116.9787331327005</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
       <c r="N38" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>40.58157162934941</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S38" t="n">
         <v>166.1290651424569</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>14.56549128550405</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -30356,7 +30356,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>14.56549128550375</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -30387,7 +30387,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>150.4889240962943</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="F40" t="n">
         <v>150.9558484244806</v>
@@ -30402,10 +30402,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J40" t="n">
-        <v>64.67173027012193</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>7.677424594681703</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30426,7 +30426,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R40" t="n">
-        <v>166.1290651424569</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S40" t="n">
         <v>166.1290651424569</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="C41" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="D41" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="E41" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="F41" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="G41" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="H41" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="I41" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="J41" t="n">
-        <v>1.876023041125706</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="K41" t="n">
-        <v>134.2731860038986</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1.876023041125791</v>
       </c>
       <c r="M41" t="n">
-        <v>134.2731860038986</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="S41" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="T41" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="U41" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="V41" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="W41" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="X41" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="Y41" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
     </row>
     <row r="42">
@@ -30554,7 +30554,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>14.56549128550373</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -30590,7 +30590,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>14.56549128550398</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -30615,43 +30615,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="C43" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="D43" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="E43" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="F43" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="G43" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="H43" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="I43" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="J43" t="n">
         <v>59.456666199969</v>
       </c>
       <c r="K43" t="n">
-        <v>134.2731860038986</v>
+        <v>104.9056080357866</v>
       </c>
       <c r="L43" t="n">
-        <v>104.9056080357849</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -30660,31 +30660,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="R43" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="S43" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="T43" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="U43" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="V43" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="W43" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="X43" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="Y43" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
     </row>
     <row r="44">
@@ -30694,37 +30694,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="C44" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="D44" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="E44" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="F44" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="G44" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="H44" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="I44" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="K44" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>46.41730540591936</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -30733,37 +30733,37 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>134.2731860038986</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>1.876023041125876</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="Q44" t="n">
-        <v>134.2731860038986</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>134.2731860038986</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S44" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="T44" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="U44" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="V44" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="W44" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="X44" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="Y44" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
     </row>
     <row r="45">
@@ -30794,7 +30794,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>14.56549128550325</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30839,7 +30839,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>14.56549128550344</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="C46" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="D46" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="E46" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="F46" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="G46" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="H46" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="I46" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="J46" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="K46" t="n">
-        <v>134.2731860038986</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>126.210306302906</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>30.08908823185739</v>
       </c>
       <c r="Q46" t="n">
-        <v>38.15196793284785</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="R46" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="S46" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="T46" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="U46" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="V46" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="W46" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="X46" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="Y46" t="n">
-        <v>134.2731860038986</v>
+        <v>134.2731860038985</v>
       </c>
     </row>
   </sheetData>
@@ -32330,7 +32330,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -32804,7 +32804,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -33986,7 +33986,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>-7.389644451905042e-13</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K2" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L2" t="n">
-        <v>351.3993667524709</v>
+        <v>193.800199104556</v>
       </c>
       <c r="M2" t="n">
         <v>397.2112790435232</v>
@@ -34717,7 +34717,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q2" t="n">
-        <v>10.51274948273419</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>231.8086389496855</v>
@@ -34784,7 +34784,7 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M3" t="n">
-        <v>399.5265948267412</v>
+        <v>460.3893691026058</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -35015,16 +35015,16 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K6" t="n">
-        <v>231.8086389496855</v>
+        <v>145.8338631163943</v>
       </c>
       <c r="L6" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>485.5013706600323</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>396.1615664486372</v>
@@ -35033,7 +35033,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q6" t="n">
-        <v>73.3905067784203</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>60.86277427586479</v>
+        <v>7.787477306886596</v>
       </c>
       <c r="K9" t="n">
         <v>231.8086389496855</v>
@@ -35264,13 +35264,13 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O9" t="n">
-        <v>396.1615664486372</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>15.27581240187084</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>72.72580229576329</v>
+        <v>186.155967803972</v>
       </c>
       <c r="K11" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L11" t="n">
-        <v>351.3993667524709</v>
+        <v>436.6474717763556</v>
       </c>
       <c r="M11" t="n">
-        <v>510.6414445517319</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N11" t="n">
-        <v>495.583053071558</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O11" t="n">
         <v>421.5156043696572</v>
       </c>
       <c r="P11" t="n">
-        <v>230.4615115717709</v>
+        <v>343.8916770799797</v>
       </c>
       <c r="Q11" t="n">
-        <v>180.6342198587705</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R11" t="n">
-        <v>23.69826186910358</v>
+        <v>23.69826186910356</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>53.97349930823976</v>
+        <v>53.97349930823975</v>
       </c>
       <c r="K13" t="n">
-        <v>147.3737894926971</v>
+        <v>147.373789492697</v>
       </c>
       <c r="L13" t="n">
         <v>215.0534780337234</v>
@@ -35583,10 +35583,10 @@
         <v>212.8883942917337</v>
       </c>
       <c r="P13" t="n">
-        <v>177.0346945265298</v>
+        <v>177.0346945265297</v>
       </c>
       <c r="Q13" t="n">
-        <v>75.27819757536091</v>
+        <v>75.27819757536089</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>186.155967803972</v>
       </c>
       <c r="K14" t="n">
-        <v>355.9961978766761</v>
+        <v>327.8141373923523</v>
       </c>
       <c r="L14" t="n">
-        <v>351.3993667524709</v>
+        <v>464.8295322606797</v>
       </c>
       <c r="M14" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N14" t="n">
-        <v>467.400992587234</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O14" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P14" t="n">
-        <v>343.8916770799797</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q14" t="n">
-        <v>95.38611483488586</v>
+        <v>208.8162803430946</v>
       </c>
       <c r="R14" t="n">
-        <v>23.69826186910355</v>
+        <v>23.69826186910356</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.86277427586489</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K15" t="n">
         <v>231.8086389496855</v>
@@ -35738,7 +35738,7 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O15" t="n">
-        <v>396.1615664486372</v>
+        <v>396.161566448637</v>
       </c>
       <c r="P15" t="n">
         <v>305.147393207775</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>53.97349930823973</v>
+        <v>53.97349930823975</v>
       </c>
       <c r="K16" t="n">
-        <v>147.373789492697</v>
+        <v>147.3737894926971</v>
       </c>
       <c r="L16" t="n">
         <v>215.0534780337234</v>
@@ -35823,7 +35823,7 @@
         <v>177.0346945265297</v>
       </c>
       <c r="Q16" t="n">
-        <v>75.27819757536088</v>
+        <v>75.27819757536089</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>238.8548674382202</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K17" t="n">
         <v>242.5660323684674</v>
@@ -35893,16 +35893,16 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N17" t="n">
-        <v>382.1528875633492</v>
+        <v>548.2819527058061</v>
       </c>
       <c r="O17" t="n">
-        <v>425.0641719941493</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P17" t="n">
         <v>396.5905767142278</v>
       </c>
       <c r="Q17" t="n">
-        <v>95.38611483488586</v>
+        <v>212.3648479675871</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.86277427586479</v>
+        <v>60.86277427586489</v>
       </c>
       <c r="K18" t="n">
         <v>231.8086389496855</v>
@@ -35978,7 +35978,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P18" t="n">
-        <v>305.1473932077745</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q18" t="n">
         <v>159.3652826117113</v>
@@ -36027,19 +36027,19 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>15.17321671797629</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>8.350146373938031</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>46.68561682995296</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>33.9436239844883</v>
@@ -36051,7 +36051,7 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N19" t="n">
-        <v>119.6185270197983</v>
+        <v>124.6782791871457</v>
       </c>
       <c r="O19" t="n">
         <v>99.45822878352493</v>
@@ -36063,7 +36063,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>18.10250157069137</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36121,19 +36121,19 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K20" t="n">
-        <v>359.5447655011686</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L20" t="n">
-        <v>351.3993667524709</v>
+        <v>517.5284318949278</v>
       </c>
       <c r="M20" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N20" t="n">
-        <v>548.2819527058061</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O20" t="n">
-        <v>308.0854388614484</v>
+        <v>348.6670104907976</v>
       </c>
       <c r="P20" t="n">
         <v>396.5905767142278</v>
@@ -36142,7 +36142,7 @@
         <v>95.38611483488586</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>76.39716150335175</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36215,7 +36215,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P21" t="n">
-        <v>305.1473932077745</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q21" t="n">
         <v>159.3652826117113</v>
@@ -36285,10 +36285,10 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M22" t="n">
-        <v>165.8709765548032</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N22" t="n">
-        <v>119.6185270197983</v>
+        <v>166.3041438497513</v>
       </c>
       <c r="O22" t="n">
         <v>99.45822878352493</v>
@@ -36358,13 +36358,13 @@
         <v>238.8548674382202</v>
       </c>
       <c r="K23" t="n">
-        <v>242.5660323684674</v>
+        <v>359.544765501168</v>
       </c>
       <c r="L23" t="n">
-        <v>351.3993667524709</v>
+        <v>517.5284318949278</v>
       </c>
       <c r="M23" t="n">
-        <v>563.3403441859801</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N23" t="n">
         <v>382.1528875633492</v>
@@ -36373,7 +36373,7 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P23" t="n">
-        <v>347.4402447044714</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q23" t="n">
         <v>95.38611483488586</v>
@@ -36452,7 +36452,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P24" t="n">
-        <v>305.147393207775</v>
+        <v>305.1473932077741</v>
       </c>
       <c r="Q24" t="n">
         <v>159.3652826117113</v>
@@ -36510,7 +36510,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>23.36805118910868</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -36519,10 +36519,10 @@
         <v>33.9436239844883</v>
       </c>
       <c r="L25" t="n">
-        <v>101.6233125255146</v>
+        <v>148.3089293554677</v>
       </c>
       <c r="M25" t="n">
-        <v>142.5029253656946</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N25" t="n">
         <v>119.6185270197983</v>
@@ -36607,16 +36607,16 @@
         <v>508.9398379190933</v>
       </c>
       <c r="O26" t="n">
-        <v>434.8723892171925</v>
+        <v>434.8723892171926</v>
       </c>
       <c r="P26" t="n">
         <v>357.248461927515</v>
       </c>
       <c r="Q26" t="n">
-        <v>222.1730651906299</v>
+        <v>222.17306519063</v>
       </c>
       <c r="R26" t="n">
-        <v>37.05504671663888</v>
+        <v>37.05504671663891</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>67.33028415577508</v>
+        <v>67.3302841557751</v>
       </c>
       <c r="K28" t="n">
-        <v>160.7305743402324</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L28" t="n">
-        <v>101.6233125255146</v>
+        <v>228.4102628812587</v>
       </c>
       <c r="M28" t="n">
-        <v>119.1853597248502</v>
+        <v>245.9723100805943</v>
       </c>
       <c r="N28" t="n">
         <v>246.4054773755424</v>
       </c>
       <c r="O28" t="n">
-        <v>226.245179139269</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P28" t="n">
         <v>190.3914793740651</v>
       </c>
       <c r="Q28" t="n">
-        <v>17.30689742566042</v>
+        <v>17.30689742566019</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36844,16 +36844,16 @@
         <v>508.9398379190933</v>
       </c>
       <c r="O29" t="n">
-        <v>434.8723892171926</v>
+        <v>434.8723892171925</v>
       </c>
       <c r="P29" t="n">
         <v>357.248461927515</v>
       </c>
       <c r="Q29" t="n">
-        <v>222.17306519063</v>
+        <v>222.1730651906299</v>
       </c>
       <c r="R29" t="n">
-        <v>37.05504671663891</v>
+        <v>37.0550467166389</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.3302841557751</v>
+        <v>67.33028415577508</v>
       </c>
       <c r="K31" t="n">
         <v>33.9436239844883</v>
@@ -36999,16 +36999,16 @@
         <v>245.9723100805943</v>
       </c>
       <c r="N31" t="n">
-        <v>119.6185270197983</v>
+        <v>175.0773923783066</v>
       </c>
       <c r="O31" t="n">
         <v>226.245179139269</v>
       </c>
       <c r="P31" t="n">
-        <v>119.0633943768289</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q31" t="n">
-        <v>88.63498242289624</v>
+        <v>88.63498242289623</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>209.8102822656222</v>
       </c>
       <c r="K32" t="n">
-        <v>266.4580581332381</v>
+        <v>379.6505123383263</v>
       </c>
       <c r="L32" t="n">
         <v>488.4838467223299</v>
@@ -37087,10 +37087,10 @@
         <v>367.5459915416299</v>
       </c>
       <c r="Q32" t="n">
-        <v>232.4705948047448</v>
+        <v>166.6307169304099</v>
       </c>
       <c r="R32" t="n">
-        <v>47.35257633075372</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>77.62781376988991</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>33.9436239844883</v>
+        <v>171.0281039543472</v>
       </c>
       <c r="L34" t="n">
-        <v>101.6233125255146</v>
+        <v>152.2010447287538</v>
       </c>
       <c r="M34" t="n">
-        <v>256.2698396947092</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N34" t="n">
         <v>119.6185270197983</v>
       </c>
       <c r="O34" t="n">
-        <v>99.45822878352493</v>
+        <v>236.5427087533838</v>
       </c>
       <c r="P34" t="n">
-        <v>173.638927421529</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q34" t="n">
         <v>98.93251203701105</v>
@@ -37306,7 +37306,7 @@
         <v>238.8548674382202</v>
       </c>
       <c r="K35" t="n">
-        <v>408.6950975109244</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L35" t="n">
         <v>351.3993667524709</v>
@@ -37315,16 +37315,16 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N35" t="n">
-        <v>382.1528875633492</v>
+        <v>548.2819527058061</v>
       </c>
       <c r="O35" t="n">
-        <v>425.0641719941493</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P35" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q35" t="n">
-        <v>95.38611483488586</v>
+        <v>212.3648479675866</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37443,7 +37443,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -37458,7 +37458,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>23.36805118910868</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M37" t="n">
-        <v>142.5029253656946</v>
+        <v>164.7471259238762</v>
       </c>
       <c r="N37" t="n">
         <v>119.6185270197983</v>
@@ -37540,22 +37540,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>72.72580229576329</v>
+        <v>189.7045354284637</v>
       </c>
       <c r="K38" t="n">
-        <v>242.5660323684674</v>
+        <v>408.6950975109244</v>
       </c>
       <c r="L38" t="n">
-        <v>517.5284318949278</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M38" t="n">
-        <v>397.2112790435232</v>
+        <v>563.3403441859801</v>
       </c>
       <c r="N38" t="n">
-        <v>548.2819527058061</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O38" t="n">
-        <v>348.6670104907978</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P38" t="n">
         <v>230.4615115717709</v>
@@ -37564,7 +37564,7 @@
         <v>95.38611483488586</v>
       </c>
       <c r="R38" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K39" t="n">
-        <v>231.8086389496856</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L39" t="n">
         <v>369.5170153233491</v>
@@ -37634,7 +37634,7 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O39" t="n">
-        <v>396.1615664486372</v>
+        <v>396.1615664486365</v>
       </c>
       <c r="P39" t="n">
         <v>305.147393207775</v>
@@ -37683,7 +37683,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>15.6401410461626</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>23.36805118910868</v>
       </c>
       <c r="J40" t="n">
-        <v>5.215064070152923</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>33.9436239844883</v>
+        <v>41.62104857917</v>
       </c>
       <c r="L40" t="n">
         <v>101.6233125255146</v>
@@ -37722,7 +37722,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>18.10250157069137</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>74.60182533688899</v>
+        <v>206.9989882996618</v>
       </c>
       <c r="K41" t="n">
-        <v>376.839218372366</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L41" t="n">
-        <v>351.3993667524709</v>
+        <v>353.2753897935967</v>
       </c>
       <c r="M41" t="n">
-        <v>531.4844650474217</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N41" t="n">
-        <v>382.1528875633492</v>
+        <v>516.4260735672477</v>
       </c>
       <c r="O41" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P41" t="n">
-        <v>364.7346975756695</v>
+        <v>364.7346975756694</v>
       </c>
       <c r="Q41" t="n">
         <v>95.38611483488586</v>
       </c>
       <c r="R41" t="n">
-        <v>44.5412823647934</v>
+        <v>44.54128236479332</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>60.86277427586489</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K42" t="n">
         <v>231.8086389496855</v>
@@ -37871,7 +37871,7 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O42" t="n">
-        <v>396.1615664486372</v>
+        <v>396.161566448637</v>
       </c>
       <c r="P42" t="n">
         <v>305.147393207775</v>
@@ -37938,16 +37938,16 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>168.2168099883869</v>
+        <v>138.8492320202749</v>
       </c>
       <c r="L43" t="n">
-        <v>206.5289205612996</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M43" t="n">
-        <v>253.4585457287488</v>
+        <v>253.4585457287487</v>
       </c>
       <c r="N43" t="n">
-        <v>119.6185270197983</v>
+        <v>253.8917130236969</v>
       </c>
       <c r="O43" t="n">
         <v>99.45822878352493</v>
@@ -37956,7 +37956,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.12121807105073</v>
+        <v>96.12121807105065</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,13 +38014,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>72.72580229576329</v>
+        <v>206.9989882996618</v>
       </c>
       <c r="K44" t="n">
-        <v>376.839218372366</v>
+        <v>376.8392183723659</v>
       </c>
       <c r="L44" t="n">
-        <v>351.3993667524709</v>
+        <v>397.8166721583903</v>
       </c>
       <c r="M44" t="n">
         <v>397.2112790435232</v>
@@ -38029,16 +38029,16 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O44" t="n">
-        <v>442.358624865347</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P44" t="n">
-        <v>232.3375346128968</v>
+        <v>364.7346975756694</v>
       </c>
       <c r="Q44" t="n">
-        <v>229.6593008387844</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R44" t="n">
-        <v>44.5412823647934</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>74.81651980392959</v>
+        <v>74.81651980392948</v>
       </c>
       <c r="K46" t="n">
-        <v>168.2168099883869</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L46" t="n">
         <v>101.6233125255146</v>
       </c>
       <c r="M46" t="n">
-        <v>245.3956660277563</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N46" t="n">
-        <v>253.8917130236969</v>
+        <v>253.8917130236968</v>
       </c>
       <c r="O46" t="n">
-        <v>99.45822878352493</v>
+        <v>233.7314147874234</v>
       </c>
       <c r="P46" t="n">
-        <v>63.604529018321</v>
+        <v>93.69361725017839</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>96.12121807105062</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
